--- a/exam-papers/2023-buss06073-business-decision-making-and-apps-solution-answer-1.xlsx
+++ b/exam-papers/2023-buss06073-business-decision-making-and-apps-solution-answer-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\learn-business\exam-papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8BE9F4-83A4-4C46-B2E4-248ED54E5D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71510796-9411-4971-9C3D-BD83211F415C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{48B5650A-B419-41F6-9683-C4A751FD5B03}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>June</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>---</t>
+  </si>
+  <si>
+    <t>----</t>
   </si>
 </sst>
 </file>
@@ -217,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +230,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,7 +274,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -308,6 +317,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -316,7 +327,42 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -369,25 +415,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -402,12 +429,176 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1012475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>141389</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>705639</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>33329</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2B1DB31-3A34-9E90-5E21-41F41AA723D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3884629" y="954677"/>
+          <a:ext cx="1598164" cy="75114"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1012475</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>162441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>705639</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>37994</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE4F127-0956-42C1-8459-9D74ED4DE142}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3884629" y="1158903"/>
+          <a:ext cx="1598164" cy="58726"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1012475</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>148647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>705639</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38682</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE95C14C-6EDB-442F-BA4B-6C5054702395}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3884629" y="1328282"/>
+          <a:ext cx="1598164" cy="73208"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E1B17BB5-BB9B-45D1-8855-16B32EF8E467}" name="Table5" displayName="Table5" ref="B4:H8" totalsRowShown="0">
   <autoFilter ref="B4:H8" xr:uid="{E1B17BB5-BB9B-45D1-8855-16B32EF8E467}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4977877A-6EEB-4238-AF80-82E2FE682410}" name="Month"/>
-    <tableColumn id="2" xr3:uid="{066ABB6D-9407-42EB-A39F-0D7CE44C5DD8}" name="Number of sales of print" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{066ABB6D-9407-42EB-A39F-0D7CE44C5DD8}" name="Number of sales of print" dataDxfId="5" dataCellStyle="Comma"/>
     <tableColumn id="3" xr3:uid="{D1754A78-6409-411C-AEE2-9BDB7B1FF78B}" name="Opening Stock"/>
     <tableColumn id="4" xr3:uid="{EACBB310-F560-4DDB-9BE3-A2B8630689AD}" name="Closing Stock">
       <calculatedColumnFormula>C6*StockRetentionRate</calculatedColumnFormula>
@@ -427,28 +618,31 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16C173AD-D54D-4774-A9FB-9824346522EB}" name="Table52" displayName="Table52" ref="B4:K8" totalsRowShown="0">
-  <autoFilter ref="B4:K8" xr:uid="{E1B17BB5-BB9B-45D1-8855-16B32EF8E467}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16C173AD-D54D-4774-A9FB-9824346522EB}" name="Table52" displayName="Table52" ref="B4:L8" totalsRowShown="0">
+  <autoFilter ref="B4:L8" xr:uid="{E1B17BB5-BB9B-45D1-8855-16B32EF8E467}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{047508A1-4D71-4F80-8D5E-5A2F5191900B}" name="Month"/>
-    <tableColumn id="2" xr3:uid="{3D6140CA-7AAA-4CD9-80D5-CCF94A5288D0}" name="Number of sales of print" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{3D6140CA-7AAA-4CD9-80D5-CCF94A5288D0}" name="Number of sales of print" dataDxfId="1" dataCellStyle="Comma"/>
     <tableColumn id="3" xr3:uid="{3E29A203-4810-4A27-AA98-036258A7BB96}" name="Opening Stock"/>
+    <tableColumn id="13" xr3:uid="{25A2FA6D-480D-4E11-AEA7-D11E4663E388}" name="-" dataDxfId="0">
+      <calculatedColumnFormula>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," * ",StockRetentionRate," =")</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="4" xr3:uid="{D4B8AC23-9576-4095-A238-6A635C46AED6}" name="Closing Stock">
       <calculatedColumnFormula>C6*StockRetentionRate</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{31658609-9B86-424A-B65F-233430AEF63E}" name="-" dataDxfId="2">
+    <tableColumn id="9" xr3:uid="{31658609-9B86-424A-B65F-233430AEF63E}" name="--" dataDxfId="4">
       <calculatedColumnFormula>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," + ",Table52[[#This Row],[Closing Stock]]," =")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{5EE1F590-F26F-4474-969F-5398BD87863B}" name="Total Prints Needed">
       <calculatedColumnFormula>Table52[[#This Row],[Number of sales of print]]+Table52[[#This Row],[Closing Stock]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1EC7EEE9-971F-4D41-9876-FC96C1E82366}" name="--" dataDxfId="1">
+    <tableColumn id="10" xr3:uid="{1EC7EEE9-971F-4D41-9876-FC96C1E82366}" name="---" dataDxfId="3">
       <calculatedColumnFormula>CONCATENATE(Table52[[#This Row],[Total Prints Needed]]," - ",Table52[[#This Row],[Opening Stock]]," =")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{B80DBBFF-2C32-42F2-BC1B-38DC4A9CA90F}" name="Prints to be Purchased">
       <calculatedColumnFormula>Table52[[#This Row],[Total Prints Needed]]-Table52[[#This Row],[Opening Stock]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{685C7C26-276E-4F30-9C9D-1D5C4FA04B0E}" name="---" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{685C7C26-276E-4F30-9C9D-1D5C4FA04B0E}" name="----" dataDxfId="2">
       <calculatedColumnFormula>CONCATENATE(Table52[[#This Row],[Prints to be Purchased]]," * ",UnitPrice," =")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{171A3691-658A-4797-A95D-696876830C69}" name="Purchases Budget" dataCellStyle="Currency">
@@ -464,7 +658,7 @@
   <autoFilter ref="B4:C6" xr:uid="{125894CD-21B1-4CC8-A3A6-6BC98122DE00}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{009A1A39-4D41-4D31-8CB0-61E86F2FAEE0}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{465367BD-4B99-410C-A5CC-2CC5747D430D}" name="Value" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{465367BD-4B99-410C-A5CC-2CC5747D430D}" name="Value" dataDxfId="6" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -938,11 +1132,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1830A581-EFB7-48D2-AFB4-99C1C3D4C735}">
-  <dimension ref="B2:K8"/>
+  <dimension ref="B2:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -950,23 +1142,24 @@
     <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:12" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -976,183 +1169,202 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="G4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="I4" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="K4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="20">
         <v>1500</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="21">
         <v>750</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="18" t="str">
+        <f>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," * ",StockRetentionRate," =")</f>
+        <v>1500 * 0.4 =</v>
+      </c>
+      <c r="F5" s="2">
         <f>C6*StockRetentionRate</f>
         <v>680</v>
       </c>
-      <c r="F5" s="18" t="str">
+      <c r="G5" s="18" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," + ",Table52[[#This Row],[Closing Stock]]," =")</f>
         <v>1500 + 680 =</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <f>Table52[[#This Row],[Number of sales of print]]+Table52[[#This Row],[Closing Stock]]</f>
         <v>2180</v>
       </c>
-      <c r="H5" s="18" t="str">
+      <c r="I5" s="18" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Total Prints Needed]]," - ",Table52[[#This Row],[Opening Stock]]," =")</f>
         <v>2180 - 750 =</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <f>Table52[[#This Row],[Total Prints Needed]]-Table52[[#This Row],[Opening Stock]]</f>
         <v>1430</v>
       </c>
-      <c r="J5" s="18" t="str">
+      <c r="K5" s="18" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Prints to be Purchased]]," * ",UnitPrice," =")</f>
         <v>1430 * 20 =</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <f>Table52[[#This Row],[Prints to be Purchased]]*UnitPrice</f>
         <v>28600</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="20">
         <v>1700</v>
       </c>
       <c r="D6" s="2">
-        <f>$E5</f>
+        <f>$F5</f>
         <v>680</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="18" t="str">
+        <f>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," * ",StockRetentionRate," =")</f>
+        <v>1700 * 0.4 =</v>
+      </c>
+      <c r="F6" s="2">
         <f>C7*StockRetentionRate</f>
         <v>760</v>
       </c>
-      <c r="F6" s="18" t="str">
+      <c r="G6" s="18" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," + ",Table52[[#This Row],[Closing Stock]]," =")</f>
         <v>1700 + 760 =</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <f>Table52[[#This Row],[Number of sales of print]]+Table52[[#This Row],[Closing Stock]]</f>
         <v>2460</v>
       </c>
-      <c r="H6" s="18" t="str">
+      <c r="I6" s="18" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Total Prints Needed]]," - ",Table52[[#This Row],[Opening Stock]]," =")</f>
         <v>2460 - 680 =</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <f>Table52[[#This Row],[Total Prints Needed]]-Table52[[#This Row],[Opening Stock]]</f>
         <v>1780</v>
       </c>
-      <c r="J6" s="18" t="str">
+      <c r="K6" s="18" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Prints to be Purchased]]," * ",UnitPrice," =")</f>
         <v>1780 * 20 =</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <f>Table52[[#This Row],[Prints to be Purchased]]*UnitPrice</f>
         <v>35600</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="20">
         <v>1900</v>
       </c>
       <c r="D7" s="2">
-        <f>$E6</f>
+        <f>$F6</f>
         <v>760</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="18" t="str">
+        <f>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," * ",StockRetentionRate," =")</f>
+        <v>1900 * 0.4 =</v>
+      </c>
+      <c r="F7" s="2">
         <f>C8*StockRetentionRate</f>
         <v>560</v>
       </c>
-      <c r="F7" s="18" t="str">
+      <c r="G7" s="18" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," + ",Table52[[#This Row],[Closing Stock]]," =")</f>
         <v>1900 + 560 =</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <f>Table52[[#This Row],[Number of sales of print]]+Table52[[#This Row],[Closing Stock]]</f>
         <v>2460</v>
       </c>
-      <c r="H7" s="18" t="str">
+      <c r="I7" s="18" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Total Prints Needed]]," - ",Table52[[#This Row],[Opening Stock]]," =")</f>
         <v>2460 - 760 =</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <f>Table52[[#This Row],[Total Prints Needed]]-Table52[[#This Row],[Opening Stock]]</f>
         <v>1700</v>
       </c>
-      <c r="J7" s="18" t="str">
+      <c r="K7" s="18" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Prints to be Purchased]]," * ",UnitPrice," =")</f>
         <v>1700 * 20 =</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <f>Table52[[#This Row],[Prints to be Purchased]]*UnitPrice</f>
         <v>34000</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="20">
         <v>1400</v>
       </c>
       <c r="D8" s="2">
-        <f>$E7</f>
+        <f>$F7</f>
         <v>560</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="18" t="str">
+        <f>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," * ",StockRetentionRate," =")</f>
+        <v>1400 * 0.4 =</v>
+      </c>
+      <c r="F8" s="2">
         <f>C9*StockRetentionRate</f>
         <v>0</v>
       </c>
-      <c r="F8" s="18" t="str">
+      <c r="G8" s="18" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," + ",Table52[[#This Row],[Closing Stock]]," =")</f>
         <v>1400 + 0 =</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <f>Table52[[#This Row],[Number of sales of print]]+Table52[[#This Row],[Closing Stock]]</f>
         <v>1400</v>
       </c>
-      <c r="H8" s="18" t="str">
+      <c r="I8" s="18" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Total Prints Needed]]," - ",Table52[[#This Row],[Opening Stock]]," =")</f>
         <v>1400 - 560 =</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <f>Table52[[#This Row],[Total Prints Needed]]-Table52[[#This Row],[Opening Stock]]</f>
         <v>840</v>
       </c>
-      <c r="J8" s="18" t="str">
+      <c r="K8" s="18" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Prints to be Purchased]]," * ",UnitPrice," =")</f>
         <v>840 * 20 =</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <f>Table52[[#This Row],[Prints to be Purchased]]*UnitPrice</f>
         <v>16800</v>
       </c>
@@ -1163,8 +1375,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/exam-papers/2023-buss06073-business-decision-making-and-apps-solution-answer-1.xlsx
+++ b/exam-papers/2023-buss06073-business-decision-making-and-apps-solution-answer-1.xlsx
@@ -8,20 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\learn-business\exam-papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71510796-9411-4971-9C3D-BD83211F415C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D70723-A3A2-4169-89A8-E4AFFB650109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{48B5650A-B419-41F6-9683-C4A751FD5B03}"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="28830" windowHeight="15510" firstSheet="3" activeTab="3" xr2:uid="{48B5650A-B419-41F6-9683-C4A751FD5B03}"/>
   </bookViews>
   <sheets>
     <sheet name="Answer1 Calculations" sheetId="2" r:id="rId1"/>
     <sheet name="Answer1 Show-work" sheetId="6" r:id="rId2"/>
-    <sheet name="Figures" sheetId="3" r:id="rId3"/>
-    <sheet name="Answer2 Calculations" sheetId="4" r:id="rId4"/>
-    <sheet name="Answer2 Work" sheetId="5" r:id="rId5"/>
+    <sheet name="Answer2 Calculations" sheetId="4" r:id="rId3"/>
+    <sheet name="Answer2 Worksheet" sheetId="7" r:id="rId4"/>
+    <sheet name="Figures" sheetId="3" r:id="rId5"/>
+    <sheet name="Answer2 Work" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="StockRetentionRate">Figures!$C$5</definedName>
-    <definedName name="UnitPrice">Figures!$C$6</definedName>
+    <definedName name="BankLoanAmount">Figures!$C$36</definedName>
+    <definedName name="DebtorsMay">Figures!$C$44</definedName>
+    <definedName name="DirectCostSalesRate">Figures!$C$27</definedName>
+    <definedName name="OpeningBalance">Figures!$C$46</definedName>
+    <definedName name="PresentValueFactor">Figures!$C$26</definedName>
+    <definedName name="SalesBalance">Figures!$C$24</definedName>
+    <definedName name="SalesRateofCash">Figures!$C$23</definedName>
+    <definedName name="StockRetentionRate">Figures!$C$8</definedName>
+    <definedName name="UnitPrice">Figures!$C$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="82">
   <si>
     <t>June</t>
   </si>
@@ -143,6 +151,15 @@
     <t>May</t>
   </si>
   <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
     <t>€</t>
   </si>
   <si>
@@ -168,6 +185,173 @@
   </si>
   <si>
     <t>----</t>
+  </si>
+  <si>
+    <t>Question 1</t>
+  </si>
+  <si>
+    <t>Question 2</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Immedate Purchases Pay Rate</t>
+  </si>
+  <si>
+    <t>Arrears Purchases Pay Rate</t>
+  </si>
+  <si>
+    <t>Calculated</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ignore:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> April Salon Cost</t>
+    </r>
+  </si>
+  <si>
+    <t>December Purchase Price</t>
+  </si>
+  <si>
+    <t>Discount Rate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pay December in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>May</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cost</t>
+    </r>
+  </si>
+  <si>
+    <t>"All relevant amounts will be paid in May."</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Equipment in Cost paid in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>June</t>
+    </r>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Bank Loan % of Equipment Cost</t>
+  </si>
+  <si>
+    <t>Repayment Amount</t>
+  </si>
+  <si>
+    <t>July, August</t>
+  </si>
+  <si>
+    <t>"will begin in the month after receiving the loan"</t>
+  </si>
+  <si>
+    <t>June, July, August</t>
+  </si>
+  <si>
+    <t>May Wages</t>
+  </si>
+  <si>
+    <t>Wage Rate Increase</t>
+  </si>
+  <si>
+    <t>"implemented from June onwards"</t>
+  </si>
+  <si>
+    <t>Annual Rates</t>
+  </si>
+  <si>
+    <t>Monthly Rate</t>
+  </si>
+  <si>
+    <t>Opening Balance</t>
+  </si>
+  <si>
+    <t>"overdrawn" means the value is negative i.e -</t>
+  </si>
+  <si>
+    <t>Present Value Factor (PVF)</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Debtors May</t>
+  </si>
+  <si>
+    <t>Sales Balance</t>
+  </si>
+  <si>
+    <t>"the balance is collected 1 month later"</t>
+  </si>
+  <si>
+    <t>Immediate Sales</t>
+  </si>
+  <si>
+    <t>Outstanding Balance(Payed in the next month</t>
+  </si>
+  <si>
+    <t>Bank Loan Amount</t>
+  </si>
+  <si>
+    <t>Direct Cost Sales Rate</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Total Income</t>
   </si>
 </sst>
 </file>
@@ -179,7 +363,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +388,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -219,8 +419,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,8 +447,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -261,56 +487,89 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -319,15 +578,691 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Heading 1" xfId="4" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="5" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
@@ -364,22 +1299,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -397,24 +1316,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -598,7 +1499,7 @@
   <autoFilter ref="B4:H8" xr:uid="{E1B17BB5-BB9B-45D1-8855-16B32EF8E467}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4977877A-6EEB-4238-AF80-82E2FE682410}" name="Month"/>
-    <tableColumn id="2" xr3:uid="{066ABB6D-9407-42EB-A39F-0D7CE44C5DD8}" name="Number of sales of print" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{066ABB6D-9407-42EB-A39F-0D7CE44C5DD8}" name="Number of sales of print" dataDxfId="38" dataCellStyle="Comma"/>
     <tableColumn id="3" xr3:uid="{D1754A78-6409-411C-AEE2-9BDB7B1FF78B}" name="Opening Stock"/>
     <tableColumn id="4" xr3:uid="{EACBB310-F560-4DDB-9BE3-A2B8630689AD}" name="Closing Stock">
       <calculatedColumnFormula>C6*StockRetentionRate</calculatedColumnFormula>
@@ -622,27 +1523,27 @@
   <autoFilter ref="B4:L8" xr:uid="{E1B17BB5-BB9B-45D1-8855-16B32EF8E467}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{047508A1-4D71-4F80-8D5E-5A2F5191900B}" name="Month"/>
-    <tableColumn id="2" xr3:uid="{3D6140CA-7AAA-4CD9-80D5-CCF94A5288D0}" name="Number of sales of print" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{3D6140CA-7AAA-4CD9-80D5-CCF94A5288D0}" name="Number of sales of print" dataDxfId="37" dataCellStyle="Comma"/>
     <tableColumn id="3" xr3:uid="{3E29A203-4810-4A27-AA98-036258A7BB96}" name="Opening Stock"/>
-    <tableColumn id="13" xr3:uid="{25A2FA6D-480D-4E11-AEA7-D11E4663E388}" name="-" dataDxfId="0">
+    <tableColumn id="13" xr3:uid="{25A2FA6D-480D-4E11-AEA7-D11E4663E388}" name="-" dataDxfId="36">
       <calculatedColumnFormula>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," * ",StockRetentionRate," =")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{D4B8AC23-9576-4095-A238-6A635C46AED6}" name="Closing Stock">
       <calculatedColumnFormula>C6*StockRetentionRate</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{31658609-9B86-424A-B65F-233430AEF63E}" name="--" dataDxfId="4">
+    <tableColumn id="9" xr3:uid="{31658609-9B86-424A-B65F-233430AEF63E}" name="--" dataDxfId="35">
       <calculatedColumnFormula>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," + ",Table52[[#This Row],[Closing Stock]]," =")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{5EE1F590-F26F-4474-969F-5398BD87863B}" name="Total Prints Needed">
       <calculatedColumnFormula>Table52[[#This Row],[Number of sales of print]]+Table52[[#This Row],[Closing Stock]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1EC7EEE9-971F-4D41-9876-FC96C1E82366}" name="---" dataDxfId="3">
+    <tableColumn id="10" xr3:uid="{1EC7EEE9-971F-4D41-9876-FC96C1E82366}" name="---" dataDxfId="34">
       <calculatedColumnFormula>CONCATENATE(Table52[[#This Row],[Total Prints Needed]]," - ",Table52[[#This Row],[Opening Stock]]," =")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{B80DBBFF-2C32-42F2-BC1B-38DC4A9CA90F}" name="Prints to be Purchased">
       <calculatedColumnFormula>Table52[[#This Row],[Total Prints Needed]]-Table52[[#This Row],[Opening Stock]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{685C7C26-276E-4F30-9C9D-1D5C4FA04B0E}" name="----" dataDxfId="2">
+    <tableColumn id="11" xr3:uid="{685C7C26-276E-4F30-9C9D-1D5C4FA04B0E}" name="----" dataDxfId="33">
       <calculatedColumnFormula>CONCATENATE(Table52[[#This Row],[Prints to be Purchased]]," * ",UnitPrice," =")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{171A3691-658A-4797-A95D-696876830C69}" name="Purchases Budget" dataCellStyle="Currency">
@@ -654,11 +1555,80 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{125894CD-21B1-4CC8-A3A6-6BC98122DE00}" name="Table6" displayName="Table6" ref="B4:C6" totalsRowShown="0">
-  <autoFilter ref="B4:C6" xr:uid="{125894CD-21B1-4CC8-A3A6-6BC98122DE00}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BDF25EA2-0FE4-49BE-A200-95FD8AC899FD}" name="Table3" displayName="Table3" ref="B5:G10" totalsRowCount="1" headerRowDxfId="20" dataDxfId="32" dataCellStyle="Currency">
+  <autoFilter ref="B5:G9" xr:uid="{BDF25EA2-0FE4-49BE-A200-95FD8AC899FD}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{1F0E7B29-58BB-4266-B350-18B1BF058372}" name="Month" totalsRowLabel="Total Income" dataDxfId="31" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{95F651F1-FC06-41FB-9076-CE02CD391F8F}" name="-" dataDxfId="30" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{70850099-22F3-4B7B-A330-CDA84A667C55}" name="May" totalsRowFunction="custom" totalsRowDxfId="9">
+      <totalsRowFormula>SUM(Table3[May])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{116621E0-A622-4A49-9D68-C636F1C2CD9E}" name="Jun" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="8" dataCellStyle="Currency">
+      <totalsRowFormula>SUM(Table3[Jun])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{AC13957D-CFA9-4000-B240-18072EBEB817}" name="Jul" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="7" dataCellStyle="Currency">
+      <totalsRowFormula>SUM(Table3[Jul])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{C3F5B26C-A786-46ED-B689-DA79867F83AE}" name="Aug" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="6" dataCellStyle="Currency">
+      <totalsRowFormula>SUM(Table3[Aug])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{397B62D4-2ACA-45F3-B17B-F47CB9BFB1B3}" name="Table4" displayName="Table4" ref="B12:G20" totalsRowCount="1" headerRowDxfId="12" dataDxfId="13" dataCellStyle="Currency">
+  <autoFilter ref="B12:G19" xr:uid="{397B62D4-2ACA-45F3-B17B-F47CB9BFB1B3}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{7061EDC4-5E25-4E00-A615-AB00ADB38089}" name="Payments" totalsRowLabel="Total Payments" dataDxfId="19" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{5553738E-1AB7-4816-A101-E415811178F7}" name="-" dataDxfId="18" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{F4B84919-AC87-418A-AFE1-1891A246D903}" name="May" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="3" dataCellStyle="Currency">
+      <totalsRowFormula>SUM(Table4[May])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{B4841D48-3120-4374-84E3-E4BBE0905946}" name="Jun" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="2" dataCellStyle="Currency">
+      <totalsRowFormula>SUM(Table4[Jun])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{C3D0D720-A4A2-441A-A762-CCDD3EAD6135}" name="Jul" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="1" dataCellStyle="Currency">
+      <totalsRowFormula>SUM(Table4[Jul])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{D83E5874-C5D9-4571-AA47-1AC44EFFCB43}" name="Aug" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="0" dataCellStyle="Currency">
+      <totalsRowFormula>SUM(Table4[Aug])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{125894CD-21B1-4CC8-A3A6-6BC98122DE00}" name="Table6" displayName="Table6" ref="B7:C9" totalsRowShown="0">
+  <autoFilter ref="B7:C9" xr:uid="{125894CD-21B1-4CC8-A3A6-6BC98122DE00}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{009A1A39-4D41-4D31-8CB0-61E86F2FAEE0}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{465367BD-4B99-410C-A5CC-2CC5747D430D}" name="Value" dataDxfId="6" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{465367BD-4B99-410C-A5CC-2CC5747D430D}" name="Value" dataDxfId="26" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4380793E-740C-42AC-8FCA-EFB192121ED9}" name="SalesProjectionTable" displayName="SalesProjectionTable" ref="B13:G17" totalsRowShown="0">
+  <autoFilter ref="B13:G17" xr:uid="{4380793E-740C-42AC-8FCA-EFB192121ED9}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{8EC15B50-6B1E-400A-81FC-D59EE9951D60}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{E8826DC7-7A04-4D63-B3E1-E1B5370C11D3}" name="Value" dataDxfId="25" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{60CAE65A-1D52-44EC-B962-1C320E5AE63B}" name="Sales" dataDxfId="24" dataCellStyle="Currency">
+      <calculatedColumnFormula>SalesProjectionTable[[#This Row],[Value]]*SalesRateofCash</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{FC153182-A1CE-4C35-95B5-5CD042D90B3B}" name="Immediate Sales" dataDxfId="23">
+      <calculatedColumnFormula>SalesProjectionTable[[#This Row],[Sales]]*PresentValueFactor</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{F1C46C9C-3F6C-4D7C-9220-4F723AF0527D}" name="Outstanding Balance(Payed in the next month" dataDxfId="22">
+      <calculatedColumnFormula>SalesProjectionTable[[#This Row],[Value]]*SalesBalance</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{CF193C21-ABB3-4731-97BA-33832428CF4E}" name="Cost" dataDxfId="21">
+      <calculatedColumnFormula>SalesProjectionTable[[#This Row],[Value]]*DirectCostSalesRate</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -978,10 +1948,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
@@ -1134,7 +2104,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1830A581-EFB7-48D2-AFB4-99C1C3D4C735}">
   <dimension ref="B2:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1153,10 +2125,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
@@ -1169,26 +2141,26 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>38</v>
+      <c r="E4" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>39</v>
+      <c r="G4" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>40</v>
+      <c r="I4" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="J4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="19" t="s">
-        <v>41</v>
+      <c r="K4" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="L4" t="s">
         <v>9</v>
@@ -1198,13 +2170,13 @@
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>1500</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>750</v>
       </c>
-      <c r="E5" s="18" t="str">
+      <c r="E5" s="17" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," * ",StockRetentionRate," =")</f>
         <v>1500 * 0.4 =</v>
       </c>
@@ -1212,7 +2184,7 @@
         <f>C6*StockRetentionRate</f>
         <v>680</v>
       </c>
-      <c r="G5" s="18" t="str">
+      <c r="G5" s="17" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," + ",Table52[[#This Row],[Closing Stock]]," =")</f>
         <v>1500 + 680 =</v>
       </c>
@@ -1220,7 +2192,7 @@
         <f>Table52[[#This Row],[Number of sales of print]]+Table52[[#This Row],[Closing Stock]]</f>
         <v>2180</v>
       </c>
-      <c r="I5" s="18" t="str">
+      <c r="I5" s="17" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Total Prints Needed]]," - ",Table52[[#This Row],[Opening Stock]]," =")</f>
         <v>2180 - 750 =</v>
       </c>
@@ -1228,7 +2200,7 @@
         <f>Table52[[#This Row],[Total Prints Needed]]-Table52[[#This Row],[Opening Stock]]</f>
         <v>1430</v>
       </c>
-      <c r="K5" s="18" t="str">
+      <c r="K5" s="17" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Prints to be Purchased]]," * ",UnitPrice," =")</f>
         <v>1430 * 20 =</v>
       </c>
@@ -1241,14 +2213,14 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>1700</v>
       </c>
       <c r="D6" s="2">
         <f>$F5</f>
         <v>680</v>
       </c>
-      <c r="E6" s="18" t="str">
+      <c r="E6" s="17" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," * ",StockRetentionRate," =")</f>
         <v>1700 * 0.4 =</v>
       </c>
@@ -1256,7 +2228,7 @@
         <f>C7*StockRetentionRate</f>
         <v>760</v>
       </c>
-      <c r="G6" s="18" t="str">
+      <c r="G6" s="17" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," + ",Table52[[#This Row],[Closing Stock]]," =")</f>
         <v>1700 + 760 =</v>
       </c>
@@ -1264,7 +2236,7 @@
         <f>Table52[[#This Row],[Number of sales of print]]+Table52[[#This Row],[Closing Stock]]</f>
         <v>2460</v>
       </c>
-      <c r="I6" s="18" t="str">
+      <c r="I6" s="17" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Total Prints Needed]]," - ",Table52[[#This Row],[Opening Stock]]," =")</f>
         <v>2460 - 680 =</v>
       </c>
@@ -1272,7 +2244,7 @@
         <f>Table52[[#This Row],[Total Prints Needed]]-Table52[[#This Row],[Opening Stock]]</f>
         <v>1780</v>
       </c>
-      <c r="K6" s="18" t="str">
+      <c r="K6" s="17" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Prints to be Purchased]]," * ",UnitPrice," =")</f>
         <v>1780 * 20 =</v>
       </c>
@@ -1285,14 +2257,14 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>1900</v>
       </c>
       <c r="D7" s="2">
         <f>$F6</f>
         <v>760</v>
       </c>
-      <c r="E7" s="18" t="str">
+      <c r="E7" s="17" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," * ",StockRetentionRate," =")</f>
         <v>1900 * 0.4 =</v>
       </c>
@@ -1300,7 +2272,7 @@
         <f>C8*StockRetentionRate</f>
         <v>560</v>
       </c>
-      <c r="G7" s="18" t="str">
+      <c r="G7" s="17" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," + ",Table52[[#This Row],[Closing Stock]]," =")</f>
         <v>1900 + 560 =</v>
       </c>
@@ -1308,7 +2280,7 @@
         <f>Table52[[#This Row],[Number of sales of print]]+Table52[[#This Row],[Closing Stock]]</f>
         <v>2460</v>
       </c>
-      <c r="I7" s="18" t="str">
+      <c r="I7" s="17" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Total Prints Needed]]," - ",Table52[[#This Row],[Opening Stock]]," =")</f>
         <v>2460 - 760 =</v>
       </c>
@@ -1316,7 +2288,7 @@
         <f>Table52[[#This Row],[Total Prints Needed]]-Table52[[#This Row],[Opening Stock]]</f>
         <v>1700</v>
       </c>
-      <c r="K7" s="18" t="str">
+      <c r="K7" s="17" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Prints to be Purchased]]," * ",UnitPrice," =")</f>
         <v>1700 * 20 =</v>
       </c>
@@ -1329,14 +2301,14 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>1400</v>
       </c>
       <c r="D8" s="2">
         <f>$F7</f>
         <v>560</v>
       </c>
-      <c r="E8" s="18" t="str">
+      <c r="E8" s="17" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," * ",StockRetentionRate," =")</f>
         <v>1400 * 0.4 =</v>
       </c>
@@ -1344,7 +2316,7 @@
         <f>C9*StockRetentionRate</f>
         <v>0</v>
       </c>
-      <c r="G8" s="18" t="str">
+      <c r="G8" s="17" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," + ",Table52[[#This Row],[Closing Stock]]," =")</f>
         <v>1400 + 0 =</v>
       </c>
@@ -1352,7 +2324,7 @@
         <f>Table52[[#This Row],[Number of sales of print]]+Table52[[#This Row],[Closing Stock]]</f>
         <v>1400</v>
       </c>
-      <c r="I8" s="18" t="str">
+      <c r="I8" s="17" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Total Prints Needed]]," - ",Table52[[#This Row],[Opening Stock]]," =")</f>
         <v>1400 - 560 =</v>
       </c>
@@ -1360,7 +2332,7 @@
         <f>Table52[[#This Row],[Total Prints Needed]]-Table52[[#This Row],[Opening Stock]]</f>
         <v>840</v>
       </c>
-      <c r="K8" s="18" t="str">
+      <c r="K8" s="17" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Prints to be Purchased]]," * ",UnitPrice," =")</f>
         <v>840 * 20 =</v>
       </c>
@@ -1383,67 +2355,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D36E3E-C906-4B90-9A16-8FB67A116FEB}">
-  <dimension ref="B2:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51247537-D13F-42CD-A481-415EBC6E0CCC}">
   <dimension ref="B4:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="D6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G22" sqref="D6:G22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1454,345 +2370,1313 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="14">
+      <c r="C5" s="6"/>
+      <c r="D5" s="13">
         <v>45413</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>45444</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>45474</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>45505</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="11">
+      <c r="C6" s="14"/>
+      <c r="D6" s="10">
         <v>-3500</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <f>D22</f>
         <v>-27948</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <f t="shared" ref="F6:G6" si="0">E22</f>
         <v>-38066</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <f t="shared" si="0"/>
         <v>-40309</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="11">
+      <c r="C7" s="14"/>
+      <c r="D7" s="10">
         <v>50490</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>57420</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>62370</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>68310</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="11">
+      <c r="C8" s="14"/>
+      <c r="D8" s="10">
         <v>15000</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>34000</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>38000</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>42000</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11">
+      <c r="B9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10">
         <v>27200</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="17">
+      <c r="C10" s="14"/>
+      <c r="D10" s="16">
         <f>SUM(D6:D9)</f>
         <v>61990</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <f>SUM(E6:E9)</f>
         <v>90672</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <f t="shared" ref="F10:G10" si="1">SUM(F6:F9)</f>
         <v>62304</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <f t="shared" si="1"/>
         <v>70001</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="11">
+      <c r="C13" s="8"/>
+      <c r="D13" s="10">
         <v>29750</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>33250</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>36750</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>40250</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="C14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="10">
         <v>16938</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>22688</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>25063</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <v>27438</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="C15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="10">
         <v>4250</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>32000</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11">
+      <c r="C16" s="8"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10">
         <v>550</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>550</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <v>550</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="11">
+      <c r="C17" s="8"/>
+      <c r="D17" s="10">
         <v>25000</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>26250</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>26250</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="10">
         <v>26250</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="11">
+      <c r="C18" s="8"/>
+      <c r="D18" s="10">
         <v>4000</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>4000</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>4000</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <v>4000</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="11">
+      <c r="C19" s="8"/>
+      <c r="D19" s="10">
         <v>10000</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>10000</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>10000</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="10">
         <v>10000</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="11">
+      <c r="C20" s="8"/>
+      <c r="D20" s="10">
         <f>SUM(D13:D19)</f>
         <v>89938</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <f t="shared" ref="E20:G20" si="2">SUM(E13:E19)</f>
         <v>128738</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <f t="shared" si="2"/>
         <v>102613</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <f t="shared" si="2"/>
         <v>108488</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="11">
+      <c r="C22" s="14"/>
+      <c r="D22" s="10">
         <f>D10-D20</f>
         <v>-27948</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <f t="shared" ref="E22:G22" si="3">E10-E20</f>
         <v>-38066</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <f t="shared" si="3"/>
         <v>-40309</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <f t="shared" si="3"/>
         <v>-38487</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39ADF2D-6BFE-4EF1-963B-26D1B015E910}">
+  <dimension ref="B4:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="31.21875" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="30.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="24">
+        <f>OpeningBalance</f>
+        <v>-3500</v>
+      </c>
+      <c r="E6" s="10">
+        <f>D22</f>
+        <v>-27948</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" ref="F6:G6" si="0">E22</f>
+        <v>-39056</v>
+      </c>
+      <c r="G6" s="10">
+        <f t="shared" si="0"/>
+        <v>-41299</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="31">
+        <f>Figures!$E14</f>
+        <v>50490</v>
+      </c>
+      <c r="E7" s="31">
+        <f>Figures!$E15</f>
+        <v>56430</v>
+      </c>
+      <c r="F7" s="31">
+        <f>Figures!$E16</f>
+        <v>62370</v>
+      </c>
+      <c r="G7" s="31">
+        <f>Figures!$E17</f>
+        <v>68310</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="24">
+        <f>DebtorsMay</f>
+        <v>15000</v>
+      </c>
+      <c r="E8" s="31">
+        <f>Figures!$F$14</f>
+        <v>34000</v>
+      </c>
+      <c r="F8" s="31">
+        <f>Figures!$F$15</f>
+        <v>38000</v>
+      </c>
+      <c r="G8" s="31">
+        <f>Figures!$F$16</f>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="24">
+        <f>BankLoanAmount</f>
+        <v>27200</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="11">
+        <f>SUM(Table3[May])</f>
+        <v>61990</v>
+      </c>
+      <c r="E10" s="11">
+        <f>SUM(Table3[Jun])</f>
+        <v>89682</v>
+      </c>
+      <c r="F10" s="11">
+        <f>SUM(Table3[Jul])</f>
+        <v>61314</v>
+      </c>
+      <c r="G10" s="11">
+        <f>SUM(Table3[Aug])</f>
+        <v>69011</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="31">
+        <f>Figures!G14</f>
+        <v>29749.999999999996</v>
+      </c>
+      <c r="E13" s="31">
+        <f>Figures!G15</f>
+        <v>33250</v>
+      </c>
+      <c r="F13" s="31">
+        <f>Figures!G16</f>
+        <v>36750</v>
+      </c>
+      <c r="G13" s="31">
+        <f>Figures!G17</f>
+        <v>40250</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="60" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="10">
+        <v>16938</v>
+      </c>
+      <c r="E14" s="10">
+        <v>22688</v>
+      </c>
+      <c r="F14" s="10">
+        <v>25063</v>
+      </c>
+      <c r="G14" s="10">
+        <v>27438</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="10">
+        <v>4250</v>
+      </c>
+      <c r="E15" s="10">
+        <v>32000</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10">
+        <v>550</v>
+      </c>
+      <c r="F16" s="10">
+        <v>550</v>
+      </c>
+      <c r="G16" s="10">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="10">
+        <v>25000</v>
+      </c>
+      <c r="E17" s="10">
+        <v>26250</v>
+      </c>
+      <c r="F17" s="10">
+        <v>26250</v>
+      </c>
+      <c r="G17" s="10">
+        <v>26250</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="10">
+        <v>4000</v>
+      </c>
+      <c r="E18" s="10">
+        <v>4000</v>
+      </c>
+      <c r="F18" s="10">
+        <v>4000</v>
+      </c>
+      <c r="G18" s="10">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="10">
+        <v>10000</v>
+      </c>
+      <c r="E19" s="10">
+        <v>10000</v>
+      </c>
+      <c r="F19" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G19" s="10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="32">
+        <f>SUM(Table4[May])</f>
+        <v>89938</v>
+      </c>
+      <c r="E20" s="32">
+        <f>SUM(Table4[Jun])</f>
+        <v>128738</v>
+      </c>
+      <c r="F20" s="32">
+        <f>SUM(Table4[Jul])</f>
+        <v>102613</v>
+      </c>
+      <c r="G20" s="32">
+        <f>SUM(Table4[Aug])</f>
+        <v>108488</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B22" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="10">
+        <f>Table3[[#Totals],[May]]-Table4[[#Totals],[May]]</f>
+        <v>-27948</v>
+      </c>
+      <c r="E22" s="10">
+        <f>Table3[[#Totals],[Jun]]-Table4[[#Totals],[Jun]]</f>
+        <v>-39056</v>
+      </c>
+      <c r="F22" s="10">
+        <f>Table3[[#Totals],[Jul]]-Table4[[#Totals],[Jul]]</f>
+        <v>-41299</v>
+      </c>
+      <c r="G22" s="10">
+        <f>Table3[[#Totals],[Aug]]-Table4[[#Totals],[Aug]]</f>
+        <v>-39477</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B23" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D36E3E-C906-4B90-9A16-8FB67A116FEB}">
+  <dimension ref="B2:AP46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="11" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="4">
+        <v>85000</v>
+      </c>
+      <c r="D14" s="4">
+        <f>SalesProjectionTable[[#This Row],[Value]]*SalesRateofCash</f>
+        <v>51000</v>
+      </c>
+      <c r="E14" s="11">
+        <f>SalesProjectionTable[[#This Row],[Sales]]*PresentValueFactor</f>
+        <v>50490</v>
+      </c>
+      <c r="F14" s="11">
+        <f>SalesProjectionTable[[#This Row],[Value]]*SalesBalance</f>
+        <v>34000</v>
+      </c>
+      <c r="G14" s="11">
+        <f>SalesProjectionTable[[#This Row],[Value]]*DirectCostSalesRate</f>
+        <v>29749.999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>95000</v>
+      </c>
+      <c r="D15" s="4">
+        <f>SalesProjectionTable[[#This Row],[Value]]*SalesRateofCash</f>
+        <v>57000</v>
+      </c>
+      <c r="E15" s="11">
+        <f>SalesProjectionTable[[#This Row],[Sales]]*PresentValueFactor</f>
+        <v>56430</v>
+      </c>
+      <c r="F15" s="11">
+        <f>SalesProjectionTable[[#This Row],[Value]]*SalesBalance</f>
+        <v>38000</v>
+      </c>
+      <c r="G15" s="11">
+        <f>SalesProjectionTable[[#This Row],[Value]]*DirectCostSalesRate</f>
+        <v>33250</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>105000</v>
+      </c>
+      <c r="D16" s="4">
+        <f>SalesProjectionTable[[#This Row],[Value]]*SalesRateofCash</f>
+        <v>63000</v>
+      </c>
+      <c r="E16" s="11">
+        <f>SalesProjectionTable[[#This Row],[Sales]]*PresentValueFactor</f>
+        <v>62370</v>
+      </c>
+      <c r="F16" s="11">
+        <f>SalesProjectionTable[[#This Row],[Value]]*SalesBalance</f>
+        <v>42000</v>
+      </c>
+      <c r="G16" s="11">
+        <f>SalesProjectionTable[[#This Row],[Value]]*DirectCostSalesRate</f>
+        <v>36750</v>
+      </c>
+    </row>
+    <row r="17" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>115000</v>
+      </c>
+      <c r="D17" s="4">
+        <f>SalesProjectionTable[[#This Row],[Value]]*SalesRateofCash</f>
+        <v>69000</v>
+      </c>
+      <c r="E17" s="11">
+        <f>SalesProjectionTable[[#This Row],[Sales]]*PresentValueFactor</f>
+        <v>68310</v>
+      </c>
+      <c r="F17" s="11">
+        <f>SalesProjectionTable[[#This Row],[Value]]*SalesBalance</f>
+        <v>46000</v>
+      </c>
+      <c r="G17" s="11">
+        <f>SalesProjectionTable[[#This Row],[Value]]*DirectCostSalesRate</f>
+        <v>40250</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="AP18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="AP19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="AP20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="AP21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="22">
+        <f>1-SalesRateofCash</f>
+        <v>0.4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="22">
+        <f>1-C25</f>
+        <v>0.99</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="22">
+        <v>0.35</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="22">
+        <f>1-C28</f>
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="4">
+        <v>12000</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="4">
+        <v>5000</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="4">
+        <f>C31*(1-C32)</f>
+        <v>4250</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="4">
+        <v>32000</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="11">
+        <f>C34*C35</f>
+        <v>27200</v>
+      </c>
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="11">
+        <v>550</v>
+      </c>
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37">
+        <v>8</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="4">
+        <v>25000</v>
+      </c>
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="E39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="4">
+        <f>C38*(1+C39)</f>
+        <v>26250</v>
+      </c>
+      <c r="D40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="4">
+        <v>48000</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="11">
+        <f>C41/12</f>
+        <v>4000</v>
+      </c>
+      <c r="D42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="11">
+        <v>10000</v>
+      </c>
+      <c r="D43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="11">
+        <v>15000</v>
+      </c>
+      <c r="D44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C45" s="11">
+        <v>12000</v>
+      </c>
+      <c r="D45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="11">
+        <v>-3500</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46">
+        <v>14</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAC9D57-EC98-4623-B5DF-25E1DFA28E88}">
   <dimension ref="B4:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1817,79 +3701,79 @@
       <c r="C5">
         <v>3500</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>33</v>
+      <c r="F5" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>0.6</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>85000</v>
       </c>
       <c r="G6" s="4">
         <f>F6*$C$6</f>
         <v>51000</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <f>G6*0.99</f>
         <v>50490</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>95000</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" ref="G7:G9" si="0">F7*$C$6</f>
         <v>57000</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <f t="shared" ref="H7:H9" si="1">G7*0.99</f>
         <v>56430</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>105000</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
         <v>63000</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <f t="shared" si="1"/>
         <v>62370</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>115000</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
         <v>69000</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <f t="shared" si="1"/>
         <v>68310</v>
       </c>

--- a/exam-papers/2023-buss06073-business-decision-making-and-apps-solution-answer-1.xlsx
+++ b/exam-papers/2023-buss06073-business-decision-making-and-apps-solution-answer-1.xlsx
@@ -1,35 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\learn-business\exam-papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D70723-A3A2-4169-89A8-E4AFFB650109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89093002-B016-4508-80EC-C04F2009681A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="28830" windowHeight="15510" firstSheet="3" activeTab="3" xr2:uid="{48B5650A-B419-41F6-9683-C4A751FD5B03}"/>
+    <workbookView xWindow="-23148" yWindow="-2928" windowWidth="23256" windowHeight="12456" tabRatio="740" activeTab="3" xr2:uid="{48B5650A-B419-41F6-9683-C4A751FD5B03}"/>
   </bookViews>
   <sheets>
     <sheet name="Answer1 Calculations" sheetId="2" r:id="rId1"/>
     <sheet name="Answer1 Show-work" sheetId="6" r:id="rId2"/>
-    <sheet name="Answer2 Calculations" sheetId="4" r:id="rId3"/>
-    <sheet name="Answer2 Worksheet" sheetId="7" r:id="rId4"/>
+    <sheet name="Answer2 Worksheet" sheetId="7" r:id="rId3"/>
+    <sheet name="Answer2 Print" sheetId="10" r:id="rId4"/>
     <sheet name="Figures" sheetId="3" r:id="rId5"/>
-    <sheet name="Answer2 Work" sheetId="5" r:id="rId6"/>
+    <sheet name="----Answer2 Calculations" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="BankLoanAmount">Figures!$C$36</definedName>
-    <definedName name="DebtorsMay">Figures!$C$44</definedName>
+    <definedName name="AnnualRates">Figures!$C$42</definedName>
+    <definedName name="AprilPurchases">Figures!$C$46</definedName>
+    <definedName name="ArrearsPurchasesPayRate">Figures!$C$29</definedName>
+    <definedName name="AugustCashPurchases">Figures!$M$17</definedName>
+    <definedName name="AugustCreditPurchases">Figures!$O$17</definedName>
+    <definedName name="BankLoanAmount">Figures!$C$37</definedName>
+    <definedName name="BankMontlyRepayment">Figures!$C$38</definedName>
+    <definedName name="DebtorsMay">Figures!$C$45</definedName>
+    <definedName name="DecemberSalonEquipmentDiscountRate">Figures!$C$32</definedName>
+    <definedName name="DecemberSalonEquipmentPrice">Figures!$C$31</definedName>
+    <definedName name="DecemberSalonEquipmentPurchasePrice">Figures!$C$33</definedName>
     <definedName name="DirectCostSalesRate">Figures!$C$27</definedName>
-    <definedName name="OpeningBalance">Figures!$C$46</definedName>
+    <definedName name="ImmedatePurchasesPayRate">Figures!$C$28</definedName>
+    <definedName name="JulyCashPurchases">Figures!$M$16</definedName>
+    <definedName name="JulyCreditPurchases">Figures!$O$16</definedName>
+    <definedName name="JuneCashPurchases">Figures!$M$15</definedName>
+    <definedName name="JuneCreditPurchases">Figures!$O$15</definedName>
+    <definedName name="MayCashPurchases">Figures!$M$14</definedName>
+    <definedName name="MayClosing">'Answer2 Print'!$C$26</definedName>
+    <definedName name="MayCreditPurchases">Figures!$O$14</definedName>
+    <definedName name="MayWages">Figures!$C$39</definedName>
+    <definedName name="MotorPurchase">Figures!$C$35</definedName>
+    <definedName name="OpeningBalance">Figures!$C$47</definedName>
     <definedName name="PresentValueFactor">Figures!$C$26</definedName>
+    <definedName name="RentMonthlyPayment">Figures!$C$44</definedName>
     <definedName name="SalesBalance">Figures!$C$24</definedName>
+    <definedName name="SalesCashRate">Figures!$C$23</definedName>
+    <definedName name="SalesCreditRate">Figures!$C$24</definedName>
     <definedName name="SalesRateofCash">Figures!$C$23</definedName>
+    <definedName name="SalonEquipmentCost">Figures!$C$30</definedName>
     <definedName name="StockRetentionRate">Figures!$C$8</definedName>
     <definedName name="UnitPrice">Figures!$C$9</definedName>
+    <definedName name="WageRateIncrease">Figures!$C$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="99">
   <si>
     <t>June</t>
   </si>
@@ -160,12 +184,6 @@
     <t>Aug</t>
   </si>
   <si>
-    <t>€</t>
-  </si>
-  <si>
-    <t>Sales Rate of Cash</t>
-  </si>
-  <si>
     <t>Loan from Financial Company</t>
   </si>
   <si>
@@ -206,35 +224,6 @@
   </si>
   <si>
     <t>Calculated</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ignore:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> April Salon Cost</t>
-    </r>
-  </si>
-  <si>
-    <t>December Purchase Price</t>
-  </si>
-  <si>
-    <t>Discount Rate</t>
   </si>
   <si>
     <r>
@@ -330,9 +319,6 @@
     <t>Debtors May</t>
   </si>
   <si>
-    <t>Sales Balance</t>
-  </si>
-  <si>
     <t>"the balance is collected 1 month later"</t>
   </si>
   <si>
@@ -348,10 +334,91 @@
     <t>Direct Cost Sales Rate</t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
     <t>Total Income</t>
+  </si>
+  <si>
+    <t>Cash Inflows</t>
+  </si>
+  <si>
+    <t>Cash Outflows</t>
+  </si>
+  <si>
+    <t>Motor Purchases</t>
+  </si>
+  <si>
+    <t>Purchases</t>
+  </si>
+  <si>
+    <t>Purchases In Cash(25%)</t>
+  </si>
+  <si>
+    <t>Purchases on Credit (75%)</t>
+  </si>
+  <si>
+    <t>April Salon Cost</t>
+  </si>
+  <si>
+    <t>April Purchases</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Cash Sales</t>
+  </si>
+  <si>
+    <t>Immediate Cash Sales</t>
+  </si>
+  <si>
+    <t>Sales Cash Rate</t>
+  </si>
+  <si>
+    <t>Sales Credit Rate</t>
+  </si>
+  <si>
+    <r>
+      <t>Credit Sa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>les (Payed in the next month)</t>
+    </r>
+  </si>
+  <si>
+    <t>Gross Sales</t>
+  </si>
+  <si>
+    <t>Cash Purchases (25%)</t>
+  </si>
+  <si>
+    <t>Credit Purchases (75%)</t>
+  </si>
+  <si>
+    <t>-----</t>
+  </si>
+  <si>
+    <t>------</t>
+  </si>
+  <si>
+    <t>December Salon Equipment Discount Rate</t>
+  </si>
+  <si>
+    <t>December Salon Equipment Price</t>
+  </si>
+  <si>
+    <t>December Salon Equipment Purchase</t>
+  </si>
+  <si>
+    <t>Cash Purchases</t>
+  </si>
+  <si>
+    <t>Credit Purchases (From  Previous Month)</t>
   </si>
 </sst>
 </file>
@@ -363,7 +430,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,8 +494,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,8 +545,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -525,6 +653,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -534,7 +701,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -545,9 +712,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -584,10 +748,6 @@
     <xf numFmtId="44" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -603,9 +763,59 @@
     <xf numFmtId="44" fontId="6" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="6" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="5" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -615,7 +825,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="77">
     <dxf>
       <font>
         <b val="0"/>
@@ -634,12 +844,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -660,12 +864,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -686,12 +884,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -712,12 +904,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -756,6 +942,283 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -806,7 +1269,107 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -846,7 +1409,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -867,7 +1430,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -888,124 +1451,11 @@
       </font>
       <fill>
         <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1034,70 +1484,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1139,6 +1525,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1174,7 +1561,33 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1195,7 +1608,448 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1224,6 +2078,31 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1246,6 +2125,32 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1494,12 +2399,358 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>927651</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>86139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>26504</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0ED0300-8FE2-C447-D66F-4BB4DFCC0760}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4704521" y="5797826"/>
+          <a:ext cx="1292087" cy="205409"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6626</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>13252</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>72887</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{559FBC0A-9E2A-4375-AABC-B9D4347F02F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6983896" y="5844209"/>
+          <a:ext cx="1013791" cy="132521"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6627</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>92766</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD22C9E-7CBF-4210-A9DF-C18BCE99FEAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8918714" y="5844209"/>
+          <a:ext cx="861391" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>960783</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>119270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371060</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>86139</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{031B0C7C-366C-4065-9ECE-BEF82B59A813}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3710609" y="5638800"/>
+          <a:ext cx="437321" cy="159026"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>821634</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>655982</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>79513</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B37AF5A6-270C-468D-B74A-2DD39EEDB7CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4598504" y="5618922"/>
+          <a:ext cx="762000" cy="172278"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1152939</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>112644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>384313</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2B970F-B8F5-49BB-B098-3DBFBA4D3D87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5857461" y="5632174"/>
+          <a:ext cx="496956" cy="178904"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E1B17BB5-BB9B-45D1-8855-16B32EF8E467}" name="Table5" displayName="Table5" ref="B4:H8" totalsRowShown="0">
   <autoFilter ref="B4:H8" xr:uid="{E1B17BB5-BB9B-45D1-8855-16B32EF8E467}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4977877A-6EEB-4238-AF80-82E2FE682410}" name="Month"/>
-    <tableColumn id="2" xr3:uid="{066ABB6D-9407-42EB-A39F-0D7CE44C5DD8}" name="Number of sales of print" dataDxfId="38" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{066ABB6D-9407-42EB-A39F-0D7CE44C5DD8}" name="Number of sales of print" dataDxfId="76" dataCellStyle="Comma"/>
     <tableColumn id="3" xr3:uid="{D1754A78-6409-411C-AEE2-9BDB7B1FF78B}" name="Opening Stock"/>
     <tableColumn id="4" xr3:uid="{EACBB310-F560-4DDB-9BE3-A2B8630689AD}" name="Closing Stock">
       <calculatedColumnFormula>C6*StockRetentionRate</calculatedColumnFormula>
@@ -1523,27 +2774,27 @@
   <autoFilter ref="B4:L8" xr:uid="{E1B17BB5-BB9B-45D1-8855-16B32EF8E467}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{047508A1-4D71-4F80-8D5E-5A2F5191900B}" name="Month"/>
-    <tableColumn id="2" xr3:uid="{3D6140CA-7AAA-4CD9-80D5-CCF94A5288D0}" name="Number of sales of print" dataDxfId="37" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{3D6140CA-7AAA-4CD9-80D5-CCF94A5288D0}" name="Number of sales of print" dataDxfId="75" dataCellStyle="Comma"/>
     <tableColumn id="3" xr3:uid="{3E29A203-4810-4A27-AA98-036258A7BB96}" name="Opening Stock"/>
-    <tableColumn id="13" xr3:uid="{25A2FA6D-480D-4E11-AEA7-D11E4663E388}" name="-" dataDxfId="36">
+    <tableColumn id="13" xr3:uid="{25A2FA6D-480D-4E11-AEA7-D11E4663E388}" name="-" dataDxfId="74">
       <calculatedColumnFormula>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," * ",StockRetentionRate," =")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{D4B8AC23-9576-4095-A238-6A635C46AED6}" name="Closing Stock">
       <calculatedColumnFormula>C6*StockRetentionRate</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{31658609-9B86-424A-B65F-233430AEF63E}" name="--" dataDxfId="35">
+    <tableColumn id="9" xr3:uid="{31658609-9B86-424A-B65F-233430AEF63E}" name="--" dataDxfId="73">
       <calculatedColumnFormula>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," + ",Table52[[#This Row],[Closing Stock]]," =")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{5EE1F590-F26F-4474-969F-5398BD87863B}" name="Total Prints Needed">
       <calculatedColumnFormula>Table52[[#This Row],[Number of sales of print]]+Table52[[#This Row],[Closing Stock]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1EC7EEE9-971F-4D41-9876-FC96C1E82366}" name="---" dataDxfId="34">
+    <tableColumn id="10" xr3:uid="{1EC7EEE9-971F-4D41-9876-FC96C1E82366}" name="---" dataDxfId="72">
       <calculatedColumnFormula>CONCATENATE(Table52[[#This Row],[Total Prints Needed]]," - ",Table52[[#This Row],[Opening Stock]]," =")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{B80DBBFF-2C32-42F2-BC1B-38DC4A9CA90F}" name="Prints to be Purchased">
       <calculatedColumnFormula>Table52[[#This Row],[Total Prints Needed]]-Table52[[#This Row],[Opening Stock]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{685C7C26-276E-4F30-9C9D-1D5C4FA04B0E}" name="----" dataDxfId="33">
+    <tableColumn id="11" xr3:uid="{685C7C26-276E-4F30-9C9D-1D5C4FA04B0E}" name="----" dataDxfId="71">
       <calculatedColumnFormula>CONCATENATE(Table52[[#This Row],[Prints to be Purchased]]," * ",UnitPrice," =")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{171A3691-658A-4797-A95D-696876830C69}" name="Purchases Budget" dataCellStyle="Currency">
@@ -1555,21 +2806,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BDF25EA2-0FE4-49BE-A200-95FD8AC899FD}" name="Table3" displayName="Table3" ref="B5:G10" totalsRowCount="1" headerRowDxfId="20" dataDxfId="32" dataCellStyle="Currency">
-  <autoFilter ref="B5:G9" xr:uid="{BDF25EA2-0FE4-49BE-A200-95FD8AC899FD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BDF25EA2-0FE4-49BE-A200-95FD8AC899FD}" name="Table3" displayName="Table3" ref="B5:G9" totalsRowCount="1" headerRowDxfId="70" dataDxfId="69" dataCellStyle="Currency">
+  <autoFilter ref="B5:G8" xr:uid="{BDF25EA2-0FE4-49BE-A200-95FD8AC899FD}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1F0E7B29-58BB-4266-B350-18B1BF058372}" name="Month" totalsRowLabel="Total Income" dataDxfId="31" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{95F651F1-FC06-41FB-9076-CE02CD391F8F}" name="-" dataDxfId="30" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{70850099-22F3-4B7B-A330-CDA84A667C55}" name="May" totalsRowFunction="custom" totalsRowDxfId="9">
+    <tableColumn id="1" xr3:uid="{1F0E7B29-58BB-4266-B350-18B1BF058372}" name="Month" totalsRowLabel="Total Income" dataDxfId="68" totalsRowDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{95F651F1-FC06-41FB-9076-CE02CD391F8F}" name="-" dataDxfId="67" totalsRowDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{70850099-22F3-4B7B-A330-CDA84A667C55}" name="May" totalsRowFunction="custom" totalsRowDxfId="58">
       <totalsRowFormula>SUM(Table3[May])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{116621E0-A622-4A49-9D68-C636F1C2CD9E}" name="Jun" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="8" dataCellStyle="Currency">
+    <tableColumn id="4" xr3:uid="{116621E0-A622-4A49-9D68-C636F1C2CD9E}" name="Jun" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="57" dataCellStyle="Currency">
       <totalsRowFormula>SUM(Table3[Jun])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{AC13957D-CFA9-4000-B240-18072EBEB817}" name="Jul" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="7" dataCellStyle="Currency">
+    <tableColumn id="5" xr3:uid="{AC13957D-CFA9-4000-B240-18072EBEB817}" name="Jul" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="56" dataCellStyle="Currency">
       <totalsRowFormula>SUM(Table3[Jul])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C3F5B26C-A786-46ED-B689-DA79867F83AE}" name="Aug" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="6" dataCellStyle="Currency">
+    <tableColumn id="6" xr3:uid="{C3F5B26C-A786-46ED-B689-DA79867F83AE}" name="Aug" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="55" dataCellStyle="Currency">
       <totalsRowFormula>SUM(Table3[Aug])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1578,21 +2829,32 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{397B62D4-2ACA-45F3-B17B-F47CB9BFB1B3}" name="Table4" displayName="Table4" ref="B12:G20" totalsRowCount="1" headerRowDxfId="12" dataDxfId="13" dataCellStyle="Currency">
-  <autoFilter ref="B12:G19" xr:uid="{397B62D4-2ACA-45F3-B17B-F47CB9BFB1B3}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7061EDC4-5E25-4E00-A615-AB00ADB38089}" name="Payments" totalsRowLabel="Total Payments" dataDxfId="19" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{5553738E-1AB7-4816-A101-E415811178F7}" name="-" dataDxfId="18" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{F4B84919-AC87-418A-AFE1-1891A246D903}" name="May" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="3" dataCellStyle="Currency">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{397B62D4-2ACA-45F3-B17B-F47CB9BFB1B3}" name="Table4" displayName="Table4" ref="B13:J22" totalsRowCount="1" headerRowDxfId="63" dataDxfId="62" dataCellStyle="Currency">
+  <autoFilter ref="B13:J21" xr:uid="{397B62D4-2ACA-45F3-B17B-F47CB9BFB1B3}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{7061EDC4-5E25-4E00-A615-AB00ADB38089}" name="Payments" totalsRowLabel="Total Payments" dataDxfId="41" totalsRowDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{5553738E-1AB7-4816-A101-E415811178F7}" name="-" dataDxfId="40" totalsRowDxfId="12">
+      <calculatedColumnFormula>CONCATENATE(AprilPurchases, " +",MayCashPurchases)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{F4B84919-AC87-418A-AFE1-1891A246D903}" name="May" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="11" dataCellStyle="Currency">
       <totalsRowFormula>SUM(Table4[May])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B4841D48-3120-4374-84E3-E4BBE0905946}" name="Jun" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="2" dataCellStyle="Currency">
+    <tableColumn id="7" xr3:uid="{660358ED-4B1B-4DC4-A202-789033C25CFA}" name="--" dataDxfId="38" totalsRowDxfId="10" dataCellStyle="Currency">
+      <calculatedColumnFormula>CONCATENATE(MayCreditPurchases, " + ", JuneCashPurchases)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{B4841D48-3120-4374-84E3-E4BBE0905946}" name="Jun" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="9" dataCellStyle="Currency">
       <totalsRowFormula>SUM(Table4[Jun])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C3D0D720-A4A2-441A-A762-CCDD3EAD6135}" name="Jul" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="1" dataCellStyle="Currency">
+    <tableColumn id="8" xr3:uid="{2E0EE05E-A335-4DF4-B809-859F3F1768C7}" name="---" dataDxfId="36" totalsRowDxfId="8" dataCellStyle="Currency">
+      <calculatedColumnFormula>CONCATENATE(JuneCreditPurchases, " + ", JulyCashPurchases)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{C3D0D720-A4A2-441A-A762-CCDD3EAD6135}" name="Jul" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="7" dataCellStyle="Currency">
       <totalsRowFormula>SUM(Table4[Jul])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D83E5874-C5D9-4571-AA47-1AC44EFFCB43}" name="Aug" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="0" dataCellStyle="Currency">
+    <tableColumn id="9" xr3:uid="{D82AC150-9948-4DE8-8CC0-976E0B79548A}" name="----" dataDxfId="34" totalsRowDxfId="6" dataCellStyle="Currency">
+      <calculatedColumnFormula>CONCATENATE(JuneCreditPurchases, " + ", JulyCashPurchases)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{D83E5874-C5D9-4571-AA47-1AC44EFFCB43}" name="Aug" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="5" dataCellStyle="Currency">
       <totalsRowFormula>SUM(Table4[Aug])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1601,34 +2863,116 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{125894CD-21B1-4CC8-A3A6-6BC98122DE00}" name="Table6" displayName="Table6" ref="B7:C9" totalsRowShown="0">
-  <autoFilter ref="B7:C9" xr:uid="{125894CD-21B1-4CC8-A3A6-6BC98122DE00}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{009A1A39-4D41-4D31-8CB0-61E86F2FAEE0}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{465367BD-4B99-410C-A5CC-2CC5747D430D}" name="Value" dataDxfId="26" dataCellStyle="Percent"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D64A0FEA-6FAB-4665-BEBC-9EF49BDD02C0}" name="InflowTable" displayName="InflowTable" ref="B5:F9" totalsRowCount="1" headerRowDxfId="32" dataDxfId="31" dataCellStyle="Currency">
+  <autoFilter ref="B5:F8" xr:uid="{BDF25EA2-0FE4-49BE-A200-95FD8AC899FD}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{5866F9D1-ED5C-4617-8D36-26C5B3E72FF3}" name="Month" totalsRowLabel="Total Income" dataDxfId="30" totalsRowDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{632983CB-C8B8-42C3-A9EC-CDD74471A8B6}" name="May" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="22">
+      <totalsRowFormula>SUM(InflowTable[May])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{AA775CF0-E8F8-4A71-8053-CFB41E4D7F84}" name="Jun" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="21" dataCellStyle="Currency">
+      <totalsRowFormula>SUM(InflowTable[Jun])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B160FC61-3A4B-469F-B5B1-56BCD564C413}" name="Jul" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="20" dataCellStyle="Currency">
+      <totalsRowFormula>SUM(InflowTable[Jul])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{B99C8D5C-8384-465E-B6C7-4CA44093F8F3}" name="Aug" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="19" dataCellStyle="Currency">
+      <totalsRowFormula>SUM(InflowTable[Aug])</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4380793E-740C-42AC-8FCA-EFB192121ED9}" name="SalesProjectionTable" displayName="SalesProjectionTable" ref="B13:G17" totalsRowShown="0">
-  <autoFilter ref="B13:G17" xr:uid="{4380793E-740C-42AC-8FCA-EFB192121ED9}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F7F658C8-C48C-4A57-9B90-0B6F1819E4B4}" name="OutflowTable" displayName="OutflowTable" ref="B13:F22" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28" dataCellStyle="Currency">
+  <autoFilter ref="B13:F21" xr:uid="{397B62D4-2ACA-45F3-B17B-F47CB9BFB1B3}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{885A03A5-A076-4E6C-A5F8-25FD70BE8DA5}" name="Payments" totalsRowLabel="Total Payments" dataDxfId="18" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{2F4AEE80-EEEA-4331-8223-324655D22EE4}" name="May" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="3" dataCellStyle="Currency">
+      <totalsRowFormula>SUM(OutflowTable[May])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{2B6198DA-3652-41EC-9584-ADF0ABE7E89D}" name="Jun" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="2" dataCellStyle="Currency">
+      <totalsRowFormula>SUM(OutflowTable[Jun])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{16304CF8-E283-4AE6-ADBF-BA0602A3C01D}" name="Jul" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="1" dataCellStyle="Currency">
+      <totalsRowFormula>SUM(OutflowTable[Jul])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{26F092AC-B983-497B-A7E1-EBAA65A5CA28}" name="Aug" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="0" dataCellStyle="Currency">
+      <totalsRowFormula>SUM(OutflowTable[Aug])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{125894CD-21B1-4CC8-A3A6-6BC98122DE00}" name="Table6" displayName="Table6" ref="B7:C9" totalsRowShown="0">
+  <autoFilter ref="B7:C9" xr:uid="{125894CD-21B1-4CC8-A3A6-6BC98122DE00}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{009A1A39-4D41-4D31-8CB0-61E86F2FAEE0}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{465367BD-4B99-410C-A5CC-2CC5747D430D}" name="Value" dataDxfId="61" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4380793E-740C-42AC-8FCA-EFB192121ED9}" name="SalesProjectionTable" displayName="SalesProjectionTable" ref="B13:O17" totalsRowShown="0">
+  <autoFilter ref="B13:O17" xr:uid="{4380793E-740C-42AC-8FCA-EFB192121ED9}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{8EC15B50-6B1E-400A-81FC-D59EE9951D60}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{E8826DC7-7A04-4D63-B3E1-E1B5370C11D3}" name="Value" dataDxfId="25" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{60CAE65A-1D52-44EC-B962-1C320E5AE63B}" name="Sales" dataDxfId="24" dataCellStyle="Currency">
-      <calculatedColumnFormula>SalesProjectionTable[[#This Row],[Value]]*SalesRateofCash</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{E8826DC7-7A04-4D63-B3E1-E1B5370C11D3}" name="Gross Sales" dataDxfId="54" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{D930720B-E64D-4851-9C4C-3D428B090951}" name="-" dataDxfId="53" dataCellStyle="Currency">
+      <calculatedColumnFormula>CONCATENATE(SalesProjectionTable[[#This Row],[Gross Sales]], " * ", SalesCashRate)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FC153182-A1CE-4C35-95B5-5CD042D90B3B}" name="Immediate Sales" dataDxfId="23">
-      <calculatedColumnFormula>SalesProjectionTable[[#This Row],[Sales]]*PresentValueFactor</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{60CAE65A-1D52-44EC-B962-1C320E5AE63B}" name="Cash Sales" dataDxfId="52" dataCellStyle="Currency">
+      <calculatedColumnFormula>SalesProjectionTable[[#This Row],[Gross Sales]]*SalesCashRate</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F1C46C9C-3F6C-4D7C-9220-4F723AF0527D}" name="Outstanding Balance(Payed in the next month" dataDxfId="22">
-      <calculatedColumnFormula>SalesProjectionTable[[#This Row],[Value]]*SalesBalance</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{1018F9C3-E4F7-45BA-92B1-CD4524E17D42}" name="--" dataDxfId="51" dataCellStyle="Currency">
+      <calculatedColumnFormula>CONCATENATE(SalesProjectionTable[[#This Row],[Cash Sales]], " * ", PresentValueFactor)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CF193C21-ABB3-4731-97BA-33832428CF4E}" name="Cost" dataDxfId="21">
-      <calculatedColumnFormula>SalesProjectionTable[[#This Row],[Value]]*DirectCostSalesRate</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{FC153182-A1CE-4C35-95B5-5CD042D90B3B}" name="Immediate Cash Sales" dataDxfId="50">
+      <calculatedColumnFormula>SalesProjectionTable[[#This Row],[Cash Sales]]*PresentValueFactor</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="12" xr3:uid="{415AA063-C0BF-4DDF-AE0C-33CAED80429F}" name="---" dataDxfId="49">
+      <calculatedColumnFormula>CONCATENATE(SalesProjectionTable[[#This Row],[Gross Sales]], " * ", SalesCreditRate)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{F1C46C9C-3F6C-4D7C-9220-4F723AF0527D}" name="Credit Sales (Payed in the next month)" dataDxfId="48">
+      <calculatedColumnFormula>SalesProjectionTable[[#This Row],[Gross Sales]]*SalesBalance</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{F6E0C5BD-9CD0-49D7-A890-5EAF9567B3C1}" name="----" dataDxfId="47" dataCellStyle="Currency">
+      <calculatedColumnFormula>CONCATENATE(SalesProjectionTable[[#This Row],[Gross Sales]], " * ", DirectCostSalesRate)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{CF193C21-ABB3-4731-97BA-33832428CF4E}" name="Purchases" dataDxfId="46">
+      <calculatedColumnFormula>SalesProjectionTable[[#This Row],[Gross Sales]]*DirectCostSalesRate</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{96BC0157-5BEA-470A-AA84-CC4ADF3B846D}" name="-----" dataDxfId="45">
+      <calculatedColumnFormula>CONCATENATE(SalesProjectionTable[[#This Row],[Purchases]], " * ", ImmedatePurchasesPayRate)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{5178BDBC-34F3-4560-AA55-5A6F95118314}" name="Cash Purchases (25%)" dataDxfId="44">
+      <calculatedColumnFormula>SalesProjectionTable[[#This Row],[Purchases]]*ImmedatePurchasesPayRate</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{5180BBB3-401C-47A3-989F-5522A7EBA01D}" name="------" dataDxfId="43" dataCellStyle="Currency">
+      <calculatedColumnFormula>CONCATENATE(SalesProjectionTable[[#This Row],[Purchases]], " * ", ArrearsPurchasesPayRate)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{847E65FE-6BA6-4920-87E2-B8691602428A}" name="Credit Purchases (75%)" dataDxfId="42">
+      <calculatedColumnFormula>SalesProjectionTable[[#This Row],[Purchases]]*ArrearsPurchasesPayRate</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7D43C935-7514-47C6-BCCD-6150ACDCF037}" name="Table7" displayName="Table7" ref="Q5:U12" totalsRowShown="0">
+  <autoFilter ref="Q5:U12" xr:uid="{7D43C935-7514-47C6-BCCD-6150ACDCF037}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A552D0EE-D1C7-498E-A2E8-B54E30F5E635}" name="Label"/>
+    <tableColumn id="2" xr3:uid="{6682E5A1-E3B7-4E82-A4D4-3A337F3E6D72}" name="May" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{9E80F550-DDCB-40D8-82BC-326CD3A3B1B0}" name="June" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{167B7648-5C6E-4FA5-A266-88E66DE23B44}" name="July" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{8EF98544-CC69-4F20-9F11-3FC23F11E4EC}" name="August" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1933,7 +3277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76389992-76A5-4FAE-B1B5-7EA447ED6BB6}">
   <dimension ref="B2:H8"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1948,10 +3292,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
@@ -2104,8 +3448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1830A581-EFB7-48D2-AFB4-99C1C3D4C735}">
   <dimension ref="B2:L8"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2125,10 +3469,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
@@ -2141,26 +3485,26 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>41</v>
+      <c r="E4" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>42</v>
+      <c r="G4" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>43</v>
+      <c r="I4" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="J4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="18" t="s">
-        <v>44</v>
+      <c r="K4" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="L4" t="s">
         <v>9</v>
@@ -2170,13 +3514,13 @@
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>1500</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>750</v>
       </c>
-      <c r="E5" s="17" t="str">
+      <c r="E5" s="16" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," * ",StockRetentionRate," =")</f>
         <v>1500 * 0.4 =</v>
       </c>
@@ -2184,7 +3528,7 @@
         <f>C6*StockRetentionRate</f>
         <v>680</v>
       </c>
-      <c r="G5" s="17" t="str">
+      <c r="G5" s="16" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," + ",Table52[[#This Row],[Closing Stock]]," =")</f>
         <v>1500 + 680 =</v>
       </c>
@@ -2192,7 +3536,7 @@
         <f>Table52[[#This Row],[Number of sales of print]]+Table52[[#This Row],[Closing Stock]]</f>
         <v>2180</v>
       </c>
-      <c r="I5" s="17" t="str">
+      <c r="I5" s="16" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Total Prints Needed]]," - ",Table52[[#This Row],[Opening Stock]]," =")</f>
         <v>2180 - 750 =</v>
       </c>
@@ -2200,7 +3544,7 @@
         <f>Table52[[#This Row],[Total Prints Needed]]-Table52[[#This Row],[Opening Stock]]</f>
         <v>1430</v>
       </c>
-      <c r="K5" s="17" t="str">
+      <c r="K5" s="16" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Prints to be Purchased]]," * ",UnitPrice," =")</f>
         <v>1430 * 20 =</v>
       </c>
@@ -2213,14 +3557,14 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>1700</v>
       </c>
       <c r="D6" s="2">
         <f>$F5</f>
         <v>680</v>
       </c>
-      <c r="E6" s="17" t="str">
+      <c r="E6" s="16" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," * ",StockRetentionRate," =")</f>
         <v>1700 * 0.4 =</v>
       </c>
@@ -2228,7 +3572,7 @@
         <f>C7*StockRetentionRate</f>
         <v>760</v>
       </c>
-      <c r="G6" s="17" t="str">
+      <c r="G6" s="16" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," + ",Table52[[#This Row],[Closing Stock]]," =")</f>
         <v>1700 + 760 =</v>
       </c>
@@ -2236,7 +3580,7 @@
         <f>Table52[[#This Row],[Number of sales of print]]+Table52[[#This Row],[Closing Stock]]</f>
         <v>2460</v>
       </c>
-      <c r="I6" s="17" t="str">
+      <c r="I6" s="16" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Total Prints Needed]]," - ",Table52[[#This Row],[Opening Stock]]," =")</f>
         <v>2460 - 680 =</v>
       </c>
@@ -2244,7 +3588,7 @@
         <f>Table52[[#This Row],[Total Prints Needed]]-Table52[[#This Row],[Opening Stock]]</f>
         <v>1780</v>
       </c>
-      <c r="K6" s="17" t="str">
+      <c r="K6" s="16" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Prints to be Purchased]]," * ",UnitPrice," =")</f>
         <v>1780 * 20 =</v>
       </c>
@@ -2257,14 +3601,14 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>1900</v>
       </c>
       <c r="D7" s="2">
         <f>$F6</f>
         <v>760</v>
       </c>
-      <c r="E7" s="17" t="str">
+      <c r="E7" s="16" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," * ",StockRetentionRate," =")</f>
         <v>1900 * 0.4 =</v>
       </c>
@@ -2272,7 +3616,7 @@
         <f>C8*StockRetentionRate</f>
         <v>560</v>
       </c>
-      <c r="G7" s="17" t="str">
+      <c r="G7" s="16" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," + ",Table52[[#This Row],[Closing Stock]]," =")</f>
         <v>1900 + 560 =</v>
       </c>
@@ -2280,7 +3624,7 @@
         <f>Table52[[#This Row],[Number of sales of print]]+Table52[[#This Row],[Closing Stock]]</f>
         <v>2460</v>
       </c>
-      <c r="I7" s="17" t="str">
+      <c r="I7" s="16" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Total Prints Needed]]," - ",Table52[[#This Row],[Opening Stock]]," =")</f>
         <v>2460 - 760 =</v>
       </c>
@@ -2288,7 +3632,7 @@
         <f>Table52[[#This Row],[Total Prints Needed]]-Table52[[#This Row],[Opening Stock]]</f>
         <v>1700</v>
       </c>
-      <c r="K7" s="17" t="str">
+      <c r="K7" s="16" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Prints to be Purchased]]," * ",UnitPrice," =")</f>
         <v>1700 * 20 =</v>
       </c>
@@ -2301,14 +3645,14 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <v>1400</v>
       </c>
       <c r="D8" s="2">
         <f>$F7</f>
         <v>560</v>
       </c>
-      <c r="E8" s="17" t="str">
+      <c r="E8" s="16" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," * ",StockRetentionRate," =")</f>
         <v>1400 * 0.4 =</v>
       </c>
@@ -2316,7 +3660,7 @@
         <f>C9*StockRetentionRate</f>
         <v>0</v>
       </c>
-      <c r="G8" s="17" t="str">
+      <c r="G8" s="16" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," + ",Table52[[#This Row],[Closing Stock]]," =")</f>
         <v>1400 + 0 =</v>
       </c>
@@ -2324,7 +3668,7 @@
         <f>Table52[[#This Row],[Number of sales of print]]+Table52[[#This Row],[Closing Stock]]</f>
         <v>1400</v>
       </c>
-      <c r="I8" s="17" t="str">
+      <c r="I8" s="16" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Total Prints Needed]]," - ",Table52[[#This Row],[Opening Stock]]," =")</f>
         <v>1400 - 560 =</v>
       </c>
@@ -2332,7 +3676,7 @@
         <f>Table52[[#This Row],[Total Prints Needed]]-Table52[[#This Row],[Opening Stock]]</f>
         <v>840</v>
       </c>
-      <c r="K8" s="17" t="str">
+      <c r="K8" s="16" t="str">
         <f>CONCATENATE(Table52[[#This Row],[Prints to be Purchased]]," * ",UnitPrice," =")</f>
         <v>840 * 20 =</v>
       </c>
@@ -2355,11 +3699,1888 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39ADF2D-6BFE-4EF1-963B-26D1B015E910}">
+  <dimension ref="B4:J26"/>
+  <sheetViews>
+    <sheetView topLeftCell="B11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="31.21875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="2:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="37">
+        <f>Figures!$G14</f>
+        <v>50490</v>
+      </c>
+      <c r="E6" s="37">
+        <f>Figures!$G15</f>
+        <v>56430</v>
+      </c>
+      <c r="F6" s="37">
+        <f>Figures!$G16</f>
+        <v>62370</v>
+      </c>
+      <c r="G6" s="37">
+        <f>Figures!$G17</f>
+        <v>68310</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="23">
+        <f>DebtorsMay</f>
+        <v>15000</v>
+      </c>
+      <c r="E7" s="41">
+        <f>Figures!$I$14</f>
+        <v>34000</v>
+      </c>
+      <c r="F7" s="41">
+        <f>Figures!$I$15</f>
+        <v>38000</v>
+      </c>
+      <c r="G7" s="41">
+        <f>Figures!$I$16</f>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="B8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="23">
+        <f>BankLoanAmount</f>
+        <v>27200</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="2:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10">
+        <f>SUM(Table3[May])</f>
+        <v>65490</v>
+      </c>
+      <c r="E9" s="10">
+        <f>SUM(Table3[Jun])</f>
+        <v>117630</v>
+      </c>
+      <c r="F9" s="10">
+        <f>SUM(Table3[Jul])</f>
+        <v>100370</v>
+      </c>
+      <c r="G9" s="10">
+        <f>SUM(Table3[Aug])</f>
+        <v>110310</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="2:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="2:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="28">
+        <f>MayCashPurchases</f>
+        <v>7437.4999999999991</v>
+      </c>
+      <c r="E14" s="44"/>
+      <c r="F14" s="28">
+        <f>JuneCashPurchases</f>
+        <v>8312.5</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="28">
+        <f>JulyCashPurchases</f>
+        <v>9187.5</v>
+      </c>
+      <c r="I14" s="47"/>
+      <c r="J14" s="28">
+        <f>AugustCashPurchases</f>
+        <v>10062.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="23">
+        <f>AprilPurchases</f>
+        <v>12000</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="50">
+        <f>MayCreditPurchases</f>
+        <v>22312.499999999996</v>
+      </c>
+      <c r="G15" s="45"/>
+      <c r="H15" s="50">
+        <f>JuneCreditPurchases</f>
+        <v>24937.5</v>
+      </c>
+      <c r="I15" s="45"/>
+      <c r="J15" s="50">
+        <f>JulyCreditPurchases</f>
+        <v>27562.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="45" t="str">
+        <f>CONCATENATE(SalonEquipmentCost, " +",DecemberSalonEquipmentPurchasePrice)</f>
+        <v>12000 +425</v>
+      </c>
+      <c r="D16" s="9">
+        <f>SalonEquipmentCost+DecemberSalonEquipmentPurchasePrice</f>
+        <v>12425</v>
+      </c>
+      <c r="E16" s="44"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="2:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="23">
+        <f>MotorPurchase</f>
+        <v>32000</v>
+      </c>
+      <c r="G17" s="44"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="2:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="9">
+        <f>BankMontlyRepayment</f>
+        <v>550</v>
+      </c>
+      <c r="I18" s="47"/>
+      <c r="J18" s="9">
+        <f>BankMontlyRepayment</f>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="23">
+        <f>MayWages</f>
+        <v>25000</v>
+      </c>
+      <c r="E19" s="45" t="str">
+        <f>CONCATENATE(MayWages,"  * ",(1+WageRateIncrease))</f>
+        <v>25000  * 1.05</v>
+      </c>
+      <c r="F19" s="9">
+        <f>MayWages*(1+WageRateIncrease)</f>
+        <v>26250</v>
+      </c>
+      <c r="G19" s="45" t="str">
+        <f>CONCATENATE(MayWages,"  * ",(1+WageRateIncrease))</f>
+        <v>25000  * 1.05</v>
+      </c>
+      <c r="H19" s="9">
+        <f>MayWages*(1+WageRateIncrease)</f>
+        <v>26250</v>
+      </c>
+      <c r="I19" s="45" t="str">
+        <f>CONCATENATE(MayWages,"  * ",(1+WageRateIncrease))</f>
+        <v>25000  * 1.05</v>
+      </c>
+      <c r="J19" s="9">
+        <f>MayWages*(1+WageRateIncrease)</f>
+        <v>26250</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="45" t="str">
+        <f>CONCATENATE(AnnualRates, " /",12)</f>
+        <v>48000 /12</v>
+      </c>
+      <c r="D20" s="9">
+        <f>AnnualRates /12</f>
+        <v>4000</v>
+      </c>
+      <c r="E20" s="45" t="str">
+        <f>CONCATENATE(AnnualRates, " /",12)</f>
+        <v>48000 /12</v>
+      </c>
+      <c r="F20" s="9">
+        <f>AnnualRates /12</f>
+        <v>4000</v>
+      </c>
+      <c r="G20" s="45" t="str">
+        <f>CONCATENATE(AnnualRates, " /",12)</f>
+        <v>48000 /12</v>
+      </c>
+      <c r="H20" s="9">
+        <f>AnnualRates /12</f>
+        <v>4000</v>
+      </c>
+      <c r="I20" s="45" t="str">
+        <f>CONCATENATE(AnnualRates, " /",12)</f>
+        <v>48000 /12</v>
+      </c>
+      <c r="J20" s="9">
+        <f>AnnualRates /12</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="23">
+        <v>10000</v>
+      </c>
+      <c r="E21" s="44"/>
+      <c r="F21" s="23">
+        <v>10000</v>
+      </c>
+      <c r="G21" s="44"/>
+      <c r="H21" s="23">
+        <v>10000</v>
+      </c>
+      <c r="I21" s="47"/>
+      <c r="J21" s="23">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="29">
+        <f>SUM(Table4[May])</f>
+        <v>70862.5</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29">
+        <f>SUM(Table4[Jun])</f>
+        <v>102875</v>
+      </c>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29">
+        <f>SUM(Table4[Jul])</f>
+        <v>74925</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="29">
+        <f>SUM(Table4[Aug])</f>
+        <v>78425</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="2:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="B24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="49" t="str">
+        <f>CONCATENATE(Table3[[#Totals],[May]], " - ",Table4[[#Totals],[May]])</f>
+        <v>65490 - 70862.5</v>
+      </c>
+      <c r="D24" s="9">
+        <f>Table3[[#Totals],[May]]-Table4[[#Totals],[May]]</f>
+        <v>-5372.5</v>
+      </c>
+      <c r="E24" s="49" t="str">
+        <f>CONCATENATE(Table3[[#Totals],[Jun]], " - ",Table4[[#Totals],[Jun]])</f>
+        <v>117630 - 102875</v>
+      </c>
+      <c r="F24" s="9">
+        <f>Table3[[#Totals],[Jun]]-Table4[[#Totals],[Jun]]</f>
+        <v>14755</v>
+      </c>
+      <c r="H24" s="9">
+        <f>Table3[[#Totals],[Jul]]-Table4[[#Totals],[Jul]]</f>
+        <v>25445</v>
+      </c>
+      <c r="J24" s="9">
+        <f>Table3[[#Totals],[Aug]]-Table4[[#Totals],[Aug]]</f>
+        <v>31885</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="B25" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="31">
+        <f>OpeningBalance</f>
+        <v>-3500</v>
+      </c>
+      <c r="F25" s="32">
+        <f>D26</f>
+        <v>-8872.5</v>
+      </c>
+      <c r="H25" s="32">
+        <f>F26</f>
+        <v>5882.5</v>
+      </c>
+      <c r="J25" s="32">
+        <f>H26</f>
+        <v>31327.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="B26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="49" t="str">
+        <f>CONCATENATE(D24, " + ",D25)</f>
+        <v>-5372.5 + -3500</v>
+      </c>
+      <c r="D26" s="9">
+        <f>D24+D25</f>
+        <v>-8872.5</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" ref="F26:H26" si="0">F24+F25</f>
+        <v>5882.5</v>
+      </c>
+      <c r="H26" s="9">
+        <f>H24+H25</f>
+        <v>31327.5</v>
+      </c>
+      <c r="J26" s="9">
+        <f>J24+J25</f>
+        <v>63212.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F19 H19" formula="1"/>
+    <ignoredError sqref="G19 I19 E19 C16 C20 G20 E20 I20:J20" calculatedColumn="1"/>
+    <ignoredError sqref="F20 D20 H20" formula="1" calculatedColumn="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743E18A1-2DAF-462F-9BC6-645D5DAADC49}">
+  <dimension ref="B4:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="37">
+        <f>Figures!$G14</f>
+        <v>50490</v>
+      </c>
+      <c r="D6" s="37">
+        <f>Figures!$G15</f>
+        <v>56430</v>
+      </c>
+      <c r="E6" s="37">
+        <f>Figures!$G16</f>
+        <v>62370</v>
+      </c>
+      <c r="F6" s="37">
+        <f>Figures!$G17</f>
+        <v>68310</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="23">
+        <f>DebtorsMay</f>
+        <v>15000</v>
+      </c>
+      <c r="D7" s="41">
+        <f>Figures!$I$14</f>
+        <v>34000</v>
+      </c>
+      <c r="E7" s="41">
+        <f>Figures!$I$15</f>
+        <v>38000</v>
+      </c>
+      <c r="F7" s="41">
+        <f>Figures!$I$16</f>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="23">
+        <f>BankLoanAmount</f>
+        <v>27200</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="10">
+        <f>SUM(InflowTable[May])</f>
+        <v>65490</v>
+      </c>
+      <c r="D9" s="10">
+        <f>SUM(InflowTable[Jun])</f>
+        <v>117630</v>
+      </c>
+      <c r="E9" s="10">
+        <f>SUM(InflowTable[Jul])</f>
+        <v>100370</v>
+      </c>
+      <c r="F9" s="10">
+        <f>SUM(InflowTable[Aug])</f>
+        <v>110310</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="9">
+        <f>MayCashPurchases</f>
+        <v>7437.4999999999991</v>
+      </c>
+      <c r="D14" s="9">
+        <f>JuneCashPurchases</f>
+        <v>8312.5</v>
+      </c>
+      <c r="E14" s="9">
+        <f>JulyCashPurchases</f>
+        <v>9187.5</v>
+      </c>
+      <c r="F14" s="9">
+        <f>AugustCashPurchases</f>
+        <v>10062.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="9">
+        <f>AprilPurchases</f>
+        <v>12000</v>
+      </c>
+      <c r="D15" s="9">
+        <f>MayCreditPurchases</f>
+        <v>22312.499999999996</v>
+      </c>
+      <c r="E15" s="9">
+        <f>JuneCreditPurchases</f>
+        <v>24937.5</v>
+      </c>
+      <c r="F15" s="9">
+        <f>JulyCreditPurchases</f>
+        <v>27562.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="9">
+        <f>SalonEquipmentCost+DecemberSalonEquipmentPurchasePrice</f>
+        <v>12425</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9">
+        <f>MotorPurchase</f>
+        <v>32000</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9">
+        <f>BankMontlyRepayment</f>
+        <v>550</v>
+      </c>
+      <c r="F18" s="9">
+        <f>BankMontlyRepayment</f>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="9">
+        <f>MayWages</f>
+        <v>25000</v>
+      </c>
+      <c r="D19" s="9">
+        <f>MayWages*(1+WageRateIncrease)</f>
+        <v>26250</v>
+      </c>
+      <c r="E19" s="9">
+        <f>MayWages*(1+WageRateIncrease)</f>
+        <v>26250</v>
+      </c>
+      <c r="F19" s="9">
+        <f>MayWages*(1+WageRateIncrease)</f>
+        <v>26250</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="9">
+        <f>AnnualRates /12</f>
+        <v>4000</v>
+      </c>
+      <c r="D20" s="9">
+        <f>AnnualRates /12</f>
+        <v>4000</v>
+      </c>
+      <c r="E20" s="9">
+        <f>AnnualRates /12</f>
+        <v>4000</v>
+      </c>
+      <c r="F20" s="9">
+        <f>AnnualRates /12</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="9">
+        <f>RentMonthlyPayment</f>
+        <v>10000</v>
+      </c>
+      <c r="D21" s="9">
+        <f>RentMonthlyPayment</f>
+        <v>10000</v>
+      </c>
+      <c r="E21" s="9">
+        <f>RentMonthlyPayment</f>
+        <v>10000</v>
+      </c>
+      <c r="F21" s="9">
+        <f>RentMonthlyPayment</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="29">
+        <f>SUM(OutflowTable[May])</f>
+        <v>70862.5</v>
+      </c>
+      <c r="D22" s="29">
+        <f>SUM(OutflowTable[Jun])</f>
+        <v>102875</v>
+      </c>
+      <c r="E22" s="29">
+        <f>SUM(OutflowTable[Jul])</f>
+        <v>74925</v>
+      </c>
+      <c r="F22" s="29">
+        <f>SUM(OutflowTable[Aug])</f>
+        <v>78425</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="9">
+        <f>InflowTable[[#Totals],[May]]-OutflowTable[[#Totals],[May]]</f>
+        <v>-5372.5</v>
+      </c>
+      <c r="D24" s="9">
+        <f>InflowTable[[#Totals],[Jun]]-OutflowTable[[#Totals],[Jun]]</f>
+        <v>14755</v>
+      </c>
+      <c r="E24" s="9">
+        <f>InflowTable[[#Totals],[Jul]]-OutflowTable[[#Totals],[Jul]]</f>
+        <v>25445</v>
+      </c>
+      <c r="F24" s="9">
+        <f>InflowTable[[#Totals],[Aug]]-OutflowTable[[#Totals],[Aug]]</f>
+        <v>31885</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B25" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="31">
+        <f>OpeningBalance</f>
+        <v>-3500</v>
+      </c>
+      <c r="D25" s="32">
+        <f>MayClosing</f>
+        <v>-8872.5</v>
+      </c>
+      <c r="E25" s="32">
+        <f>D26</f>
+        <v>5882.5</v>
+      </c>
+      <c r="F25" s="32">
+        <f>E26</f>
+        <v>31327.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="9">
+        <f>C24+C25</f>
+        <v>-8872.5</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" ref="D26" si="0">D24+D25</f>
+        <v>5882.5</v>
+      </c>
+      <c r="E26" s="9">
+        <f>E24+E25</f>
+        <v>31327.5</v>
+      </c>
+      <c r="F26" s="9">
+        <f>F24+F25</f>
+        <v>63212.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D36E3E-C906-4B90-9A16-8FB67A116FEB}">
+  <dimension ref="B2:AV47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="41.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" customWidth="1"/>
+    <col min="13" max="13" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.21875" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" customWidth="1"/>
+    <col min="17" max="17" width="27.44140625" customWidth="1"/>
+    <col min="18" max="19" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="2:21" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="Q5" t="s">
+        <v>83</v>
+      </c>
+      <c r="R5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="Q6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="4">
+        <v>85000</v>
+      </c>
+      <c r="S6" s="4">
+        <v>95000</v>
+      </c>
+      <c r="T6" s="4">
+        <v>105000</v>
+      </c>
+      <c r="U6" s="4">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="Q7" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" s="4">
+        <f>R6*SalesRateofCash</f>
+        <v>51000</v>
+      </c>
+      <c r="S7" s="4">
+        <f>S6*SalesRateofCash</f>
+        <v>57000</v>
+      </c>
+      <c r="T7" s="4">
+        <f>T6*SalesRateofCash</f>
+        <v>63000</v>
+      </c>
+      <c r="U7" s="4">
+        <f>U6*SalesRateofCash</f>
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="Q8" t="s">
+        <v>70</v>
+      </c>
+      <c r="R8" s="4">
+        <f>R7*PresentValueFactor</f>
+        <v>50490</v>
+      </c>
+      <c r="S8" s="4">
+        <f>S7*PresentValueFactor</f>
+        <v>56430</v>
+      </c>
+      <c r="T8" s="4">
+        <f>T7*PresentValueFactor</f>
+        <v>62370</v>
+      </c>
+      <c r="U8" s="4">
+        <f>U7*PresentValueFactor</f>
+        <v>68310</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="Q9" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9" s="4">
+        <f>R6*SalesBalance</f>
+        <v>34000</v>
+      </c>
+      <c r="S9" s="4">
+        <f>S6*SalesBalance</f>
+        <v>38000</v>
+      </c>
+      <c r="T9" s="4">
+        <f>T6*SalesBalance</f>
+        <v>42000</v>
+      </c>
+      <c r="U9" s="4">
+        <f>U6*SalesBalance</f>
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="Q10" t="s">
+        <v>78</v>
+      </c>
+      <c r="R10" s="4">
+        <f>R6*DirectCostSalesRate</f>
+        <v>29749.999999999996</v>
+      </c>
+      <c r="S10" s="4">
+        <v>33250</v>
+      </c>
+      <c r="T10" s="4">
+        <v>36750</v>
+      </c>
+      <c r="U10" s="4">
+        <v>40250</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>79</v>
+      </c>
+      <c r="R11" s="4">
+        <f>R10*ImmedatePurchasesPayRate</f>
+        <v>7437.4999999999991</v>
+      </c>
+      <c r="S11" s="4">
+        <f>S10*ImmedatePurchasesPayRate</f>
+        <v>8312.5</v>
+      </c>
+      <c r="T11" s="4">
+        <f>T10*ImmedatePurchasesPayRate</f>
+        <v>9187.5</v>
+      </c>
+      <c r="U11" s="4">
+        <f>U10*ImmedatePurchasesPayRate</f>
+        <v>10062.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="Q12" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12" s="4">
+        <f>R10*ArrearsPurchasesPayRate</f>
+        <v>22312.499999999996</v>
+      </c>
+      <c r="S12" s="4">
+        <f>S10*ArrearsPurchasesPayRate</f>
+        <v>24937.5</v>
+      </c>
+      <c r="T12" s="4">
+        <v>27562.5</v>
+      </c>
+      <c r="U12" s="4">
+        <v>30187.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" t="s">
+        <v>90</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="O13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="38">
+        <v>85000</v>
+      </c>
+      <c r="D14" s="39" t="str">
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Gross Sales]], " * ", SalesCashRate)</f>
+        <v>85000 * 0.6</v>
+      </c>
+      <c r="E14" s="4">
+        <f>SalesProjectionTable[[#This Row],[Gross Sales]]*SalesCashRate</f>
+        <v>51000</v>
+      </c>
+      <c r="F14" s="39" t="str">
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Cash Sales]], " * ", PresentValueFactor)</f>
+        <v>51000 * 0.99</v>
+      </c>
+      <c r="G14" s="36">
+        <f>SalesProjectionTable[[#This Row],[Cash Sales]]*PresentValueFactor</f>
+        <v>50490</v>
+      </c>
+      <c r="H14" s="39" t="str">
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Gross Sales]], " * ", SalesCreditRate)</f>
+        <v>85000 * 0.4</v>
+      </c>
+      <c r="I14" s="40">
+        <f>SalesProjectionTable[[#This Row],[Gross Sales]]*SalesBalance</f>
+        <v>34000</v>
+      </c>
+      <c r="J14" s="39" t="str">
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Gross Sales]], " * ", DirectCostSalesRate)</f>
+        <v>85000 * 0.35</v>
+      </c>
+      <c r="K14" s="10">
+        <f>SalesProjectionTable[[#This Row],[Gross Sales]]*DirectCostSalesRate</f>
+        <v>29749.999999999996</v>
+      </c>
+      <c r="L14" s="39" t="str">
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Purchases]], " * ", ImmedatePurchasesPayRate)</f>
+        <v>29750 * 0.25</v>
+      </c>
+      <c r="M14" s="42">
+        <f>SalesProjectionTable[[#This Row],[Purchases]]*ImmedatePurchasesPayRate</f>
+        <v>7437.4999999999991</v>
+      </c>
+      <c r="N14" s="39" t="str">
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Purchases]], " * ", ArrearsPurchasesPayRate)</f>
+        <v>29750 * 0.75</v>
+      </c>
+      <c r="O14" s="51">
+        <f>SalesProjectionTable[[#This Row],[Purchases]]*ArrearsPurchasesPayRate</f>
+        <v>22312.499999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="38">
+        <v>95000</v>
+      </c>
+      <c r="D15" s="39" t="str">
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Gross Sales]], " * ", SalesCashRate)</f>
+        <v>95000 * 0.6</v>
+      </c>
+      <c r="E15" s="4">
+        <f>SalesProjectionTable[[#This Row],[Gross Sales]]*SalesCashRate</f>
+        <v>57000</v>
+      </c>
+      <c r="F15" s="39" t="str">
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Cash Sales]], " * ", PresentValueFactor)</f>
+        <v>57000 * 0.99</v>
+      </c>
+      <c r="G15" s="36">
+        <f>SalesProjectionTable[[#This Row],[Cash Sales]]*PresentValueFactor</f>
+        <v>56430</v>
+      </c>
+      <c r="H15" s="39" t="str">
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Gross Sales]], " * ", SalesCreditRate)</f>
+        <v>95000 * 0.4</v>
+      </c>
+      <c r="I15" s="40">
+        <f>SalesProjectionTable[[#This Row],[Gross Sales]]*SalesBalance</f>
+        <v>38000</v>
+      </c>
+      <c r="J15" s="39" t="str">
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Gross Sales]], " * ", DirectCostSalesRate)</f>
+        <v>95000 * 0.35</v>
+      </c>
+      <c r="K15" s="10">
+        <f>SalesProjectionTable[[#This Row],[Gross Sales]]*DirectCostSalesRate</f>
+        <v>33250</v>
+      </c>
+      <c r="L15" s="39" t="str">
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Purchases]], " * ", ImmedatePurchasesPayRate)</f>
+        <v>33250 * 0.25</v>
+      </c>
+      <c r="M15" s="42">
+        <f>SalesProjectionTable[[#This Row],[Purchases]]*ImmedatePurchasesPayRate</f>
+        <v>8312.5</v>
+      </c>
+      <c r="N15" s="39" t="str">
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Purchases]], " * ", ArrearsPurchasesPayRate)</f>
+        <v>33250 * 0.75</v>
+      </c>
+      <c r="O15" s="51">
+        <f>SalesProjectionTable[[#This Row],[Purchases]]*ArrearsPurchasesPayRate</f>
+        <v>24937.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="38">
+        <v>105000</v>
+      </c>
+      <c r="D16" s="39" t="str">
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Gross Sales]], " * ", SalesCashRate)</f>
+        <v>105000 * 0.6</v>
+      </c>
+      <c r="E16" s="4">
+        <f>SalesProjectionTable[[#This Row],[Gross Sales]]*SalesCashRate</f>
+        <v>63000</v>
+      </c>
+      <c r="F16" s="39" t="str">
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Cash Sales]], " * ", PresentValueFactor)</f>
+        <v>63000 * 0.99</v>
+      </c>
+      <c r="G16" s="36">
+        <f>SalesProjectionTable[[#This Row],[Cash Sales]]*PresentValueFactor</f>
+        <v>62370</v>
+      </c>
+      <c r="H16" s="39" t="str">
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Gross Sales]], " * ", SalesCreditRate)</f>
+        <v>105000 * 0.4</v>
+      </c>
+      <c r="I16" s="40">
+        <f>SalesProjectionTable[[#This Row],[Gross Sales]]*SalesBalance</f>
+        <v>42000</v>
+      </c>
+      <c r="J16" s="39" t="str">
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Gross Sales]], " * ", DirectCostSalesRate)</f>
+        <v>105000 * 0.35</v>
+      </c>
+      <c r="K16" s="10">
+        <f>SalesProjectionTable[[#This Row],[Gross Sales]]*DirectCostSalesRate</f>
+        <v>36750</v>
+      </c>
+      <c r="L16" s="39" t="str">
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Purchases]], " * ", ImmedatePurchasesPayRate)</f>
+        <v>36750 * 0.25</v>
+      </c>
+      <c r="M16" s="42">
+        <f>SalesProjectionTable[[#This Row],[Purchases]]*ImmedatePurchasesPayRate</f>
+        <v>9187.5</v>
+      </c>
+      <c r="N16" s="39" t="str">
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Purchases]], " * ", ArrearsPurchasesPayRate)</f>
+        <v>36750 * 0.75</v>
+      </c>
+      <c r="O16" s="51">
+        <f>SalesProjectionTable[[#This Row],[Purchases]]*ArrearsPurchasesPayRate</f>
+        <v>27562.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="38">
+        <v>115000</v>
+      </c>
+      <c r="D17" s="39" t="str">
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Gross Sales]], " * ", SalesCashRate)</f>
+        <v>115000 * 0.6</v>
+      </c>
+      <c r="E17" s="4">
+        <f>SalesProjectionTable[[#This Row],[Gross Sales]]*SalesCashRate</f>
+        <v>69000</v>
+      </c>
+      <c r="F17" s="39" t="str">
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Cash Sales]], " * ", PresentValueFactor)</f>
+        <v>69000 * 0.99</v>
+      </c>
+      <c r="G17" s="36">
+        <f>SalesProjectionTable[[#This Row],[Cash Sales]]*PresentValueFactor</f>
+        <v>68310</v>
+      </c>
+      <c r="H17" s="39" t="str">
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Gross Sales]], " * ", SalesCreditRate)</f>
+        <v>115000 * 0.4</v>
+      </c>
+      <c r="I17" s="10">
+        <f>SalesProjectionTable[[#This Row],[Gross Sales]]*SalesBalance</f>
+        <v>46000</v>
+      </c>
+      <c r="J17" s="39" t="str">
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Gross Sales]], " * ", DirectCostSalesRate)</f>
+        <v>115000 * 0.35</v>
+      </c>
+      <c r="K17" s="10">
+        <f>SalesProjectionTable[[#This Row],[Gross Sales]]*DirectCostSalesRate</f>
+        <v>40250</v>
+      </c>
+      <c r="L17" s="39" t="str">
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Purchases]], " * ", ImmedatePurchasesPayRate)</f>
+        <v>40250 * 0.25</v>
+      </c>
+      <c r="M17" s="42">
+        <f>SalesProjectionTable[[#This Row],[Purchases]]*ImmedatePurchasesPayRate</f>
+        <v>10062.5</v>
+      </c>
+      <c r="N17" s="39" t="str">
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Purchases]], " * ", ArrearsPurchasesPayRate)</f>
+        <v>40250 * 0.75</v>
+      </c>
+      <c r="O17" s="10">
+        <f>SalesProjectionTable[[#This Row],[Purchases]]*ArrearsPurchasesPayRate</f>
+        <v>30187.5</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="AV18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="AV19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="AV20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="AV21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="21">
+        <f>1-SalesRateofCash</f>
+        <v>0.4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="21">
+        <f>1-C25</f>
+        <v>0.99</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="21">
+        <v>0.35</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="21">
+        <f>1-C28</f>
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="I29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="4">
+        <v>12000</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="4">
+        <v>500</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="48">
+        <f>DecemberSalonEquipmentPrice*(1-DecemberSalonEquipmentDiscountRate)</f>
+        <v>425</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="4">
+        <f>C33*(1-C32)</f>
+        <v>361.25</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34">
+        <v>6</v>
+      </c>
+      <c r="I34" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="L34" s="22"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="4">
+        <v>32000</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="G36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="10">
+        <f>C35*C36</f>
+        <v>27200</v>
+      </c>
+      <c r="D37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>8</v>
+      </c>
+      <c r="I37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="10">
+        <v>550</v>
+      </c>
+      <c r="D38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38">
+        <v>8</v>
+      </c>
+      <c r="K38" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="L38" s="22"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="4">
+        <v>25000</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="4">
+        <f>C39*(1+C40)</f>
+        <v>26250</v>
+      </c>
+      <c r="D41" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41">
+        <v>9</v>
+      </c>
+      <c r="I41" t="s">
+        <v>49</v>
+      </c>
+      <c r="K41" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="L41" s="22"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="4">
+        <v>48000</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="10">
+        <f>C42/12</f>
+        <v>4000</v>
+      </c>
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="I43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="10">
+        <v>10000</v>
+      </c>
+      <c r="D44" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="10">
+        <v>15000</v>
+      </c>
+      <c r="D45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="10">
+        <v>12000</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="10">
+        <v>-3500</v>
+      </c>
+      <c r="D47" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47">
+        <v>14</v>
+      </c>
+      <c r="K47" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="L47" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51247537-D13F-42CD-A481-415EBC6E0CCC}">
   <dimension ref="B4:G24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2370,1413 +5591,325 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>45413</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>45444</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>45474</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>45505</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="10">
+      <c r="C6" s="13"/>
+      <c r="D6" s="9">
         <v>-3500</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <f>D22</f>
-        <v>-27948</v>
-      </c>
-      <c r="F6" s="10">
+        <v>1802</v>
+      </c>
+      <c r="F6" s="9">
         <f t="shared" ref="F6:G6" si="0">E22</f>
-        <v>-38066</v>
-      </c>
-      <c r="G6" s="10">
+        <v>24934</v>
+      </c>
+      <c r="G6" s="9">
         <f t="shared" si="0"/>
-        <v>-40309</v>
+        <v>59441</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="10">
+      <c r="C7" s="13"/>
+      <c r="D7" s="9">
         <v>50490</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>57420</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>62370</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>68310</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="10">
+      <c r="C8" s="13"/>
+      <c r="D8" s="9">
         <v>15000</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>34000</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>38000</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>42000</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10">
+      <c r="B9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9">
         <v>27200</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="16">
+      <c r="C10" s="13"/>
+      <c r="D10" s="15">
         <f>SUM(D6:D9)</f>
         <v>61990</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <f>SUM(E6:E9)</f>
-        <v>90672</v>
-      </c>
-      <c r="F10" s="16">
+        <v>120422</v>
+      </c>
+      <c r="F10" s="15">
         <f t="shared" ref="F10:G10" si="1">SUM(F6:F9)</f>
-        <v>62304</v>
-      </c>
-      <c r="G10" s="16">
+        <v>125304</v>
+      </c>
+      <c r="G10" s="15">
         <f t="shared" si="1"/>
-        <v>70001</v>
+        <v>169751</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="10">
-        <v>29750</v>
-      </c>
-      <c r="E13" s="10">
-        <v>33250</v>
-      </c>
-      <c r="F13" s="10">
-        <v>36750</v>
-      </c>
-      <c r="G13" s="10">
-        <v>40250</v>
-      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="10">
+      <c r="C14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="9">
         <v>16938</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>22688</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>25063</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>27438</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="10">
+      <c r="C15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="9">
         <v>4250</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>32000</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10">
+      <c r="C16" s="7"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
         <v>550</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>550</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>550</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="10">
+      <c r="C17" s="7"/>
+      <c r="D17" s="9">
         <v>25000</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>26250</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>26250</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>26250</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="10">
+      <c r="C18" s="7"/>
+      <c r="D18" s="9">
         <v>4000</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>4000</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>4000</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>4000</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="10">
+      <c r="C19" s="7"/>
+      <c r="D19" s="9">
         <v>10000</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>10000</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>10000</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>10000</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="10">
+      <c r="C20" s="7"/>
+      <c r="D20" s="9">
         <f>SUM(D13:D19)</f>
-        <v>89938</v>
-      </c>
-      <c r="E20" s="10">
+        <v>60188</v>
+      </c>
+      <c r="E20" s="9">
         <f t="shared" ref="E20:G20" si="2">SUM(E13:E19)</f>
-        <v>128738</v>
-      </c>
-      <c r="F20" s="10">
+        <v>95488</v>
+      </c>
+      <c r="F20" s="9">
         <f t="shared" si="2"/>
-        <v>102613</v>
-      </c>
-      <c r="G20" s="10">
+        <v>65863</v>
+      </c>
+      <c r="G20" s="9">
         <f t="shared" si="2"/>
-        <v>108488</v>
+        <v>68238</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="10">
+      <c r="C22" s="13"/>
+      <c r="D22" s="9">
         <f>D10-D20</f>
-        <v>-27948</v>
-      </c>
-      <c r="E22" s="10">
+        <v>1802</v>
+      </c>
+      <c r="E22" s="9">
         <f t="shared" ref="E22:G22" si="3">E10-E20</f>
-        <v>-38066</v>
-      </c>
-      <c r="F22" s="10">
+        <v>24934</v>
+      </c>
+      <c r="F22" s="9">
         <f t="shared" si="3"/>
-        <v>-40309</v>
-      </c>
-      <c r="G22" s="10">
+        <v>59441</v>
+      </c>
+      <c r="G22" s="9">
         <f t="shared" si="3"/>
-        <v>-38487</v>
+        <v>101513</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39ADF2D-6BFE-4EF1-963B-26D1B015E910}">
-  <dimension ref="B4:G24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="31.21875" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="30.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="24">
-        <f>OpeningBalance</f>
-        <v>-3500</v>
-      </c>
-      <c r="E6" s="10">
-        <f>D22</f>
-        <v>-27948</v>
-      </c>
-      <c r="F6" s="10">
-        <f t="shared" ref="F6:G6" si="0">E22</f>
-        <v>-39056</v>
-      </c>
-      <c r="G6" s="10">
-        <f t="shared" si="0"/>
-        <v>-41299</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="31">
-        <f>Figures!$E14</f>
-        <v>50490</v>
-      </c>
-      <c r="E7" s="31">
-        <f>Figures!$E15</f>
-        <v>56430</v>
-      </c>
-      <c r="F7" s="31">
-        <f>Figures!$E16</f>
-        <v>62370</v>
-      </c>
-      <c r="G7" s="31">
-        <f>Figures!$E17</f>
-        <v>68310</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="24">
-        <f>DebtorsMay</f>
-        <v>15000</v>
-      </c>
-      <c r="E8" s="31">
-        <f>Figures!$F$14</f>
-        <v>34000</v>
-      </c>
-      <c r="F8" s="31">
-        <f>Figures!$F$15</f>
-        <v>38000</v>
-      </c>
-      <c r="G8" s="31">
-        <f>Figures!$F$16</f>
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="24">
-        <f>BankLoanAmount</f>
-        <v>27200</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="11">
-        <f>SUM(Table3[May])</f>
-        <v>61990</v>
-      </c>
-      <c r="E10" s="11">
-        <f>SUM(Table3[Jun])</f>
-        <v>89682</v>
-      </c>
-      <c r="F10" s="11">
-        <f>SUM(Table3[Jul])</f>
-        <v>61314</v>
-      </c>
-      <c r="G10" s="11">
-        <f>SUM(Table3[Aug])</f>
-        <v>69011</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="2:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="31">
-        <f>Figures!G14</f>
-        <v>29749.999999999996</v>
-      </c>
-      <c r="E13" s="31">
-        <f>Figures!G15</f>
-        <v>33250</v>
-      </c>
-      <c r="F13" s="31">
-        <f>Figures!G16</f>
-        <v>36750</v>
-      </c>
-      <c r="G13" s="31">
-        <f>Figures!G17</f>
-        <v>40250</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="60" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="10">
-        <v>16938</v>
-      </c>
-      <c r="E14" s="10">
-        <v>22688</v>
-      </c>
-      <c r="F14" s="10">
-        <v>25063</v>
-      </c>
-      <c r="G14" s="10">
-        <v>27438</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="10">
-        <v>4250</v>
-      </c>
-      <c r="E15" s="10">
-        <v>32000</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10">
-        <v>550</v>
-      </c>
-      <c r="F16" s="10">
-        <v>550</v>
-      </c>
-      <c r="G16" s="10">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="10">
-        <v>25000</v>
-      </c>
-      <c r="E17" s="10">
-        <v>26250</v>
-      </c>
-      <c r="F17" s="10">
-        <v>26250</v>
-      </c>
-      <c r="G17" s="10">
-        <v>26250</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="10">
-        <v>4000</v>
-      </c>
-      <c r="E18" s="10">
-        <v>4000</v>
-      </c>
-      <c r="F18" s="10">
-        <v>4000</v>
-      </c>
-      <c r="G18" s="10">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="10">
-        <v>10000</v>
-      </c>
-      <c r="E19" s="10">
-        <v>10000</v>
-      </c>
-      <c r="F19" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G19" s="10">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="32">
-        <f>SUM(Table4[May])</f>
-        <v>89938</v>
-      </c>
-      <c r="E20" s="32">
-        <f>SUM(Table4[Jun])</f>
-        <v>128738</v>
-      </c>
-      <c r="F20" s="32">
-        <f>SUM(Table4[Jul])</f>
-        <v>102613</v>
-      </c>
-      <c r="G20" s="32">
-        <f>SUM(Table4[Aug])</f>
-        <v>108488</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B22" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="10">
-        <f>Table3[[#Totals],[May]]-Table4[[#Totals],[May]]</f>
-        <v>-27948</v>
-      </c>
-      <c r="E22" s="10">
-        <f>Table3[[#Totals],[Jun]]-Table4[[#Totals],[Jun]]</f>
-        <v>-39056</v>
-      </c>
-      <c r="F22" s="10">
-        <f>Table3[[#Totals],[Jul]]-Table4[[#Totals],[Jul]]</f>
-        <v>-41299</v>
-      </c>
-      <c r="G22" s="10">
-        <f>Table3[[#Totals],[Aug]]-Table4[[#Totals],[Aug]]</f>
-        <v>-39477</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B23" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D36E3E-C906-4B90-9A16-8FB67A116FEB}">
-  <dimension ref="B2:AP46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="11" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="4">
-        <v>85000</v>
-      </c>
-      <c r="D14" s="4">
-        <f>SalesProjectionTable[[#This Row],[Value]]*SalesRateofCash</f>
-        <v>51000</v>
-      </c>
-      <c r="E14" s="11">
-        <f>SalesProjectionTable[[#This Row],[Sales]]*PresentValueFactor</f>
-        <v>50490</v>
-      </c>
-      <c r="F14" s="11">
-        <f>SalesProjectionTable[[#This Row],[Value]]*SalesBalance</f>
-        <v>34000</v>
-      </c>
-      <c r="G14" s="11">
-        <f>SalesProjectionTable[[#This Row],[Value]]*DirectCostSalesRate</f>
-        <v>29749.999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4">
-        <v>95000</v>
-      </c>
-      <c r="D15" s="4">
-        <f>SalesProjectionTable[[#This Row],[Value]]*SalesRateofCash</f>
-        <v>57000</v>
-      </c>
-      <c r="E15" s="11">
-        <f>SalesProjectionTable[[#This Row],[Sales]]*PresentValueFactor</f>
-        <v>56430</v>
-      </c>
-      <c r="F15" s="11">
-        <f>SalesProjectionTable[[#This Row],[Value]]*SalesBalance</f>
-        <v>38000</v>
-      </c>
-      <c r="G15" s="11">
-        <f>SalesProjectionTable[[#This Row],[Value]]*DirectCostSalesRate</f>
-        <v>33250</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4">
-        <v>105000</v>
-      </c>
-      <c r="D16" s="4">
-        <f>SalesProjectionTable[[#This Row],[Value]]*SalesRateofCash</f>
-        <v>63000</v>
-      </c>
-      <c r="E16" s="11">
-        <f>SalesProjectionTable[[#This Row],[Sales]]*PresentValueFactor</f>
-        <v>62370</v>
-      </c>
-      <c r="F16" s="11">
-        <f>SalesProjectionTable[[#This Row],[Value]]*SalesBalance</f>
-        <v>42000</v>
-      </c>
-      <c r="G16" s="11">
-        <f>SalesProjectionTable[[#This Row],[Value]]*DirectCostSalesRate</f>
-        <v>36750</v>
-      </c>
-    </row>
-    <row r="17" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="4">
-        <v>115000</v>
-      </c>
-      <c r="D17" s="4">
-        <f>SalesProjectionTable[[#This Row],[Value]]*SalesRateofCash</f>
-        <v>69000</v>
-      </c>
-      <c r="E17" s="11">
-        <f>SalesProjectionTable[[#This Row],[Sales]]*PresentValueFactor</f>
-        <v>68310</v>
-      </c>
-      <c r="F17" s="11">
-        <f>SalesProjectionTable[[#This Row],[Value]]*SalesBalance</f>
-        <v>46000</v>
-      </c>
-      <c r="G17" s="11">
-        <f>SalesProjectionTable[[#This Row],[Value]]*DirectCostSalesRate</f>
-        <v>40250</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="AP18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="AP19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="AP20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="AP21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="22">
-        <f>1-SalesRateofCash</f>
-        <v>0.4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="22">
-        <f>1-C25</f>
-        <v>0.99</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="22">
-        <v>0.35</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="22">
-        <v>0.25</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="22">
-        <f>1-C28</f>
-        <v>0.75</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29">
-        <v>5</v>
-      </c>
-      <c r="F29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="4">
-        <v>12000</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="4">
-        <v>5000</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="22">
-        <v>0.15</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="4">
-        <f>C31*(1-C32)</f>
-        <v>4250</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33">
-        <v>6</v>
-      </c>
-      <c r="F33" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="4">
-        <v>32000</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="E35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="11">
-        <f>C34*C35</f>
-        <v>27200</v>
-      </c>
-      <c r="D36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>8</v>
-      </c>
-      <c r="F36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="11">
-        <v>550</v>
-      </c>
-      <c r="D37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37">
-        <v>8</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="4">
-        <v>25000</v>
-      </c>
-      <c r="D38" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="E39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="4">
-        <f>C38*(1+C39)</f>
-        <v>26250</v>
-      </c>
-      <c r="D40" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40">
-        <v>9</v>
-      </c>
-      <c r="F40" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="4">
-        <v>48000</v>
-      </c>
-      <c r="E41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="11">
-        <f>C41/12</f>
-        <v>4000</v>
-      </c>
-      <c r="D42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42">
-        <v>10</v>
-      </c>
-      <c r="F42" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="11">
-        <v>10000</v>
-      </c>
-      <c r="D43" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="11">
-        <v>15000</v>
-      </c>
-      <c r="D44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C45" s="11">
-        <v>12000</v>
-      </c>
-      <c r="D45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="11">
-        <v>-3500</v>
-      </c>
-      <c r="D46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46">
-        <v>14</v>
-      </c>
-      <c r="G46" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAC9D57-EC98-4623-B5DF-25E1DFA28E88}">
-  <dimension ref="B4:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>3500</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6">
-        <v>0.6</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="10">
-        <v>85000</v>
-      </c>
-      <c r="G6" s="4">
-        <f>F6*$C$6</f>
-        <v>51000</v>
-      </c>
-      <c r="H6" s="11">
-        <f>G6*0.99</f>
-        <v>50490</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="E7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>95000</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" ref="G7:G9" si="0">F7*$C$6</f>
-        <v>57000</v>
-      </c>
-      <c r="H7" s="11">
-        <f t="shared" ref="H7:H9" si="1">G7*0.99</f>
-        <v>56430</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="E8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10">
-        <v>105000</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" si="0"/>
-        <v>63000</v>
-      </c>
-      <c r="H8" s="11">
-        <f t="shared" si="1"/>
-        <v>62370</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="E9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="10">
-        <v>115000</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="0"/>
-        <v>69000</v>
-      </c>
-      <c r="H9" s="11">
-        <f t="shared" si="1"/>
-        <v>68310</v>
-      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exam-papers/2023-buss06073-business-decision-making-and-apps-solution-answer-1.xlsx
+++ b/exam-papers/2023-buss06073-business-decision-making-and-apps-solution-answer-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\learn-business\exam-papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89093002-B016-4508-80EC-C04F2009681A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF4004F-F60D-420C-8C0D-72DE524F6481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-2928" windowWidth="23256" windowHeight="12456" tabRatio="740" activeTab="3" xr2:uid="{48B5650A-B419-41F6-9683-C4A751FD5B03}"/>
+    <workbookView xWindow="-23148" yWindow="-2928" windowWidth="23256" windowHeight="12456" tabRatio="740" activeTab="4" xr2:uid="{48B5650A-B419-41F6-9683-C4A751FD5B03}"/>
   </bookViews>
   <sheets>
     <sheet name="Answer1 Calculations" sheetId="2" r:id="rId1"/>
@@ -21,14 +21,14 @@
     <sheet name="----Answer2 Calculations" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="AnnualRates">Figures!$C$42</definedName>
-    <definedName name="AprilPurchases">Figures!$C$46</definedName>
+    <definedName name="AnnualRates">Figures!$C$41</definedName>
+    <definedName name="AprilPurchases">Figures!$C$45</definedName>
     <definedName name="ArrearsPurchasesPayRate">Figures!$C$29</definedName>
     <definedName name="AugustCashPurchases">Figures!$M$17</definedName>
     <definedName name="AugustCreditPurchases">Figures!$O$17</definedName>
-    <definedName name="BankLoanAmount">Figures!$C$37</definedName>
-    <definedName name="BankMontlyRepayment">Figures!$C$38</definedName>
-    <definedName name="DebtorsMay">Figures!$C$45</definedName>
+    <definedName name="BankLoanAmount">Figures!$C$36</definedName>
+    <definedName name="BankMontlyRepayment">Figures!$C$37</definedName>
+    <definedName name="DebtorsMay">Figures!$C$44</definedName>
     <definedName name="DecemberSalonEquipmentDiscountRate">Figures!$C$32</definedName>
     <definedName name="DecemberSalonEquipmentPrice">Figures!$C$31</definedName>
     <definedName name="DecemberSalonEquipmentPurchasePrice">Figures!$C$33</definedName>
@@ -41,11 +41,11 @@
     <definedName name="MayCashPurchases">Figures!$M$14</definedName>
     <definedName name="MayClosing">'Answer2 Print'!$C$26</definedName>
     <definedName name="MayCreditPurchases">Figures!$O$14</definedName>
-    <definedName name="MayWages">Figures!$C$39</definedName>
-    <definedName name="MotorPurchase">Figures!$C$35</definedName>
-    <definedName name="OpeningBalance">Figures!$C$47</definedName>
+    <definedName name="MayWages">Figures!$C$38</definedName>
+    <definedName name="MotorPurchase">Figures!$C$34</definedName>
+    <definedName name="OpeningBalance">Figures!$C$46</definedName>
     <definedName name="PresentValueFactor">Figures!$C$26</definedName>
-    <definedName name="RentMonthlyPayment">Figures!$C$44</definedName>
+    <definedName name="RentMonthlyPayment">Figures!$C$43</definedName>
     <definedName name="SalesBalance">Figures!$C$24</definedName>
     <definedName name="SalesCashRate">Figures!$C$23</definedName>
     <definedName name="SalesCreditRate">Figures!$C$24</definedName>
@@ -53,7 +53,7 @@
     <definedName name="SalonEquipmentCost">Figures!$C$30</definedName>
     <definedName name="StockRetentionRate">Figures!$C$8</definedName>
     <definedName name="UnitPrice">Figures!$C$9</definedName>
-    <definedName name="WageRateIncrease">Figures!$C$40</definedName>
+    <definedName name="WageRateIncrease">Figures!$C$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="102">
   <si>
     <t>June</t>
   </si>
@@ -221,35 +221,6 @@
   </si>
   <si>
     <t>Arrears Purchases Pay Rate</t>
-  </si>
-  <si>
-    <t>Calculated</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pay December in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>May</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Cost</t>
-    </r>
   </si>
   <si>
     <t>"All relevant amounts will be paid in May."</t>
@@ -419,6 +390,21 @@
   </si>
   <si>
     <t>Credit Purchases (From  Previous Month)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>Ref snip</t>
+  </si>
+  <si>
+    <t>snip</t>
+  </si>
+  <si>
+    <t>Gross Purchases</t>
   </si>
 </sst>
 </file>
@@ -577,12 +563,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -590,6 +570,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,7 +687,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -808,13 +794,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
@@ -825,7 +813,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="78">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1737,9 +1731,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
@@ -2577,7 +2568,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>960783</xdr:colOff>
+      <xdr:colOff>1689100</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>119270</xdr:rowOff>
     </xdr:from>
@@ -2585,7 +2576,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>371060</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>86139</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2600,8 +2591,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3710609" y="5638800"/>
-          <a:ext cx="437321" cy="159026"/>
+          <a:off x="4400550" y="5250070"/>
+          <a:ext cx="498060" cy="223630"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2635,11 +2626,11 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>821634</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>99392</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>655982</xdr:colOff>
+      <xdr:colOff>298450</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>79513</xdr:rowOff>
     </xdr:to>
@@ -2656,8 +2647,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4598504" y="5618922"/>
-          <a:ext cx="762000" cy="172278"/>
+          <a:off x="5349184" y="5264150"/>
+          <a:ext cx="480116" cy="136663"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2689,15 +2680,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1152939</xdr:colOff>
+      <xdr:colOff>824009</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>112644</xdr:rowOff>
+      <xdr:rowOff>157094</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>384313</xdr:colOff>
+      <xdr:colOff>276363</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>99391</xdr:rowOff>
+      <xdr:rowOff>143841</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2712,8 +2703,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5857461" y="5632174"/>
-          <a:ext cx="496956" cy="178904"/>
+          <a:off x="6354859" y="5287894"/>
+          <a:ext cx="379454" cy="177247"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2750,7 +2741,7 @@
   <autoFilter ref="B4:H8" xr:uid="{E1B17BB5-BB9B-45D1-8855-16B32EF8E467}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4977877A-6EEB-4238-AF80-82E2FE682410}" name="Month"/>
-    <tableColumn id="2" xr3:uid="{066ABB6D-9407-42EB-A39F-0D7CE44C5DD8}" name="Number of sales of print" dataDxfId="76" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{066ABB6D-9407-42EB-A39F-0D7CE44C5DD8}" name="Number of sales of print" dataDxfId="77" dataCellStyle="Comma"/>
     <tableColumn id="3" xr3:uid="{D1754A78-6409-411C-AEE2-9BDB7B1FF78B}" name="Opening Stock"/>
     <tableColumn id="4" xr3:uid="{EACBB310-F560-4DDB-9BE3-A2B8630689AD}" name="Closing Stock">
       <calculatedColumnFormula>C6*StockRetentionRate</calculatedColumnFormula>
@@ -2769,32 +2760,46 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{EC7D4567-7B1E-4BB7-8968-61628AB46817}" name="Table12" displayName="Table12" ref="B22:F46" totalsRowShown="0">
+  <autoFilter ref="B22:F46" xr:uid="{EC7D4567-7B1E-4BB7-8968-61628AB46817}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{37B1B2E6-4D3F-405F-AE37-9D2776418840}" name="Name "/>
+    <tableColumn id="2" xr3:uid="{21F6E443-7F79-47A0-9D92-07742ECF7E87}" name="Value" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{CEABDC32-06AC-41E0-92B6-D79CDA1FAC75}" name="Month"/>
+    <tableColumn id="4" xr3:uid="{C882FBE9-85CF-4B6D-9605-406A7E75BFE2}" name="Ref"/>
+    <tableColumn id="5" xr3:uid="{CF9DD775-869D-4BB0-8A67-7C4CED86E36A}" name="Ref snip"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16C173AD-D54D-4774-A9FB-9824346522EB}" name="Table52" displayName="Table52" ref="B4:L8" totalsRowShown="0">
   <autoFilter ref="B4:L8" xr:uid="{E1B17BB5-BB9B-45D1-8855-16B32EF8E467}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{047508A1-4D71-4F80-8D5E-5A2F5191900B}" name="Month"/>
-    <tableColumn id="2" xr3:uid="{3D6140CA-7AAA-4CD9-80D5-CCF94A5288D0}" name="Number of sales of print" dataDxfId="75" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{3D6140CA-7AAA-4CD9-80D5-CCF94A5288D0}" name="Number of sales of print" dataDxfId="76" dataCellStyle="Comma"/>
     <tableColumn id="3" xr3:uid="{3E29A203-4810-4A27-AA98-036258A7BB96}" name="Opening Stock"/>
-    <tableColumn id="13" xr3:uid="{25A2FA6D-480D-4E11-AEA7-D11E4663E388}" name="-" dataDxfId="74">
+    <tableColumn id="13" xr3:uid="{25A2FA6D-480D-4E11-AEA7-D11E4663E388}" name="-" dataDxfId="75">
       <calculatedColumnFormula>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," * ",StockRetentionRate," =")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{D4B8AC23-9576-4095-A238-6A635C46AED6}" name="Closing Stock">
       <calculatedColumnFormula>C6*StockRetentionRate</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{31658609-9B86-424A-B65F-233430AEF63E}" name="--" dataDxfId="73">
+    <tableColumn id="9" xr3:uid="{31658609-9B86-424A-B65F-233430AEF63E}" name="--" dataDxfId="74">
       <calculatedColumnFormula>CONCATENATE(Table52[[#This Row],[Number of sales of print]]," + ",Table52[[#This Row],[Closing Stock]]," =")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{5EE1F590-F26F-4474-969F-5398BD87863B}" name="Total Prints Needed">
       <calculatedColumnFormula>Table52[[#This Row],[Number of sales of print]]+Table52[[#This Row],[Closing Stock]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1EC7EEE9-971F-4D41-9876-FC96C1E82366}" name="---" dataDxfId="72">
+    <tableColumn id="10" xr3:uid="{1EC7EEE9-971F-4D41-9876-FC96C1E82366}" name="---" dataDxfId="73">
       <calculatedColumnFormula>CONCATENATE(Table52[[#This Row],[Total Prints Needed]]," - ",Table52[[#This Row],[Opening Stock]]," =")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{B80DBBFF-2C32-42F2-BC1B-38DC4A9CA90F}" name="Prints to be Purchased">
       <calculatedColumnFormula>Table52[[#This Row],[Total Prints Needed]]-Table52[[#This Row],[Opening Stock]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{685C7C26-276E-4F30-9C9D-1D5C4FA04B0E}" name="----" dataDxfId="71">
+    <tableColumn id="11" xr3:uid="{685C7C26-276E-4F30-9C9D-1D5C4FA04B0E}" name="----" dataDxfId="72">
       <calculatedColumnFormula>CONCATENATE(Table52[[#This Row],[Prints to be Purchased]]," * ",UnitPrice," =")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{171A3691-658A-4797-A95D-696876830C69}" name="Purchases Budget" dataCellStyle="Currency">
@@ -2806,21 +2811,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BDF25EA2-0FE4-49BE-A200-95FD8AC899FD}" name="Table3" displayName="Table3" ref="B5:G9" totalsRowCount="1" headerRowDxfId="70" dataDxfId="69" dataCellStyle="Currency">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BDF25EA2-0FE4-49BE-A200-95FD8AC899FD}" name="Table3" displayName="Table3" ref="B5:G9" totalsRowCount="1" headerRowDxfId="71" dataDxfId="70" dataCellStyle="Currency">
   <autoFilter ref="B5:G8" xr:uid="{BDF25EA2-0FE4-49BE-A200-95FD8AC899FD}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1F0E7B29-58BB-4266-B350-18B1BF058372}" name="Month" totalsRowLabel="Total Income" dataDxfId="68" totalsRowDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{95F651F1-FC06-41FB-9076-CE02CD391F8F}" name="-" dataDxfId="67" totalsRowDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{70850099-22F3-4B7B-A330-CDA84A667C55}" name="May" totalsRowFunction="custom" totalsRowDxfId="58">
+    <tableColumn id="1" xr3:uid="{1F0E7B29-58BB-4266-B350-18B1BF058372}" name="Month" totalsRowLabel="Total Income" dataDxfId="69" totalsRowDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{95F651F1-FC06-41FB-9076-CE02CD391F8F}" name="-" dataDxfId="68" totalsRowDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{70850099-22F3-4B7B-A330-CDA84A667C55}" name="May" totalsRowFunction="custom" totalsRowDxfId="59">
       <totalsRowFormula>SUM(Table3[May])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{116621E0-A622-4A49-9D68-C636F1C2CD9E}" name="Jun" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="57" dataCellStyle="Currency">
+    <tableColumn id="4" xr3:uid="{116621E0-A622-4A49-9D68-C636F1C2CD9E}" name="Jun" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="58" dataCellStyle="Currency">
       <totalsRowFormula>SUM(Table3[Jun])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{AC13957D-CFA9-4000-B240-18072EBEB817}" name="Jul" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="56" dataCellStyle="Currency">
+    <tableColumn id="5" xr3:uid="{AC13957D-CFA9-4000-B240-18072EBEB817}" name="Jul" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="57" dataCellStyle="Currency">
       <totalsRowFormula>SUM(Table3[Jul])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C3F5B26C-A786-46ED-B689-DA79867F83AE}" name="Aug" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="55" dataCellStyle="Currency">
+    <tableColumn id="6" xr3:uid="{C3F5B26C-A786-46ED-B689-DA79867F83AE}" name="Aug" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="56" dataCellStyle="Currency">
       <totalsRowFormula>SUM(Table3[Aug])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -2829,32 +2834,32 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{397B62D4-2ACA-45F3-B17B-F47CB9BFB1B3}" name="Table4" displayName="Table4" ref="B13:J22" totalsRowCount="1" headerRowDxfId="63" dataDxfId="62" dataCellStyle="Currency">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{397B62D4-2ACA-45F3-B17B-F47CB9BFB1B3}" name="Table4" displayName="Table4" ref="B13:J22" totalsRowCount="1" headerRowDxfId="64" dataDxfId="63" dataCellStyle="Currency">
   <autoFilter ref="B13:J21" xr:uid="{397B62D4-2ACA-45F3-B17B-F47CB9BFB1B3}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7061EDC4-5E25-4E00-A615-AB00ADB38089}" name="Payments" totalsRowLabel="Total Payments" dataDxfId="41" totalsRowDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{5553738E-1AB7-4816-A101-E415811178F7}" name="-" dataDxfId="40" totalsRowDxfId="12">
+    <tableColumn id="1" xr3:uid="{7061EDC4-5E25-4E00-A615-AB00ADB38089}" name="Payments" totalsRowLabel="Total Payments" dataDxfId="43" totalsRowDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{5553738E-1AB7-4816-A101-E415811178F7}" name="-" dataDxfId="42" totalsRowDxfId="14">
       <calculatedColumnFormula>CONCATENATE(AprilPurchases, " +",MayCashPurchases)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F4B84919-AC87-418A-AFE1-1891A246D903}" name="May" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="11" dataCellStyle="Currency">
+    <tableColumn id="3" xr3:uid="{F4B84919-AC87-418A-AFE1-1891A246D903}" name="May" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="13" dataCellStyle="Currency">
       <totalsRowFormula>SUM(Table4[May])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{660358ED-4B1B-4DC4-A202-789033C25CFA}" name="--" dataDxfId="38" totalsRowDxfId="10" dataCellStyle="Currency">
+    <tableColumn id="7" xr3:uid="{660358ED-4B1B-4DC4-A202-789033C25CFA}" name="--" dataDxfId="40" totalsRowDxfId="12" dataCellStyle="Currency">
       <calculatedColumnFormula>CONCATENATE(MayCreditPurchases, " + ", JuneCashPurchases)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B4841D48-3120-4374-84E3-E4BBE0905946}" name="Jun" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="9" dataCellStyle="Currency">
+    <tableColumn id="4" xr3:uid="{B4841D48-3120-4374-84E3-E4BBE0905946}" name="Jun" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="11" dataCellStyle="Currency">
       <totalsRowFormula>SUM(Table4[Jun])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2E0EE05E-A335-4DF4-B809-859F3F1768C7}" name="---" dataDxfId="36" totalsRowDxfId="8" dataCellStyle="Currency">
+    <tableColumn id="8" xr3:uid="{2E0EE05E-A335-4DF4-B809-859F3F1768C7}" name="---" dataDxfId="38" totalsRowDxfId="10" dataCellStyle="Currency">
       <calculatedColumnFormula>CONCATENATE(JuneCreditPurchases, " + ", JulyCashPurchases)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C3D0D720-A4A2-441A-A762-CCDD3EAD6135}" name="Jul" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="7" dataCellStyle="Currency">
+    <tableColumn id="5" xr3:uid="{C3D0D720-A4A2-441A-A762-CCDD3EAD6135}" name="Jul" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="9" dataCellStyle="Currency">
       <totalsRowFormula>SUM(Table4[Jul])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D82AC150-9948-4DE8-8CC0-976E0B79548A}" name="----" dataDxfId="34" totalsRowDxfId="6" dataCellStyle="Currency">
+    <tableColumn id="9" xr3:uid="{D82AC150-9948-4DE8-8CC0-976E0B79548A}" name="----" dataDxfId="36" totalsRowDxfId="8" dataCellStyle="Currency">
       <calculatedColumnFormula>CONCATENATE(JuneCreditPurchases, " + ", JulyCashPurchases)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D83E5874-C5D9-4571-AA47-1AC44EFFCB43}" name="Aug" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="5" dataCellStyle="Currency">
+    <tableColumn id="6" xr3:uid="{D83E5874-C5D9-4571-AA47-1AC44EFFCB43}" name="Aug" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="7" dataCellStyle="Currency">
       <totalsRowFormula>SUM(Table4[Aug])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -2863,20 +2868,20 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D64A0FEA-6FAB-4665-BEBC-9EF49BDD02C0}" name="InflowTable" displayName="InflowTable" ref="B5:F9" totalsRowCount="1" headerRowDxfId="32" dataDxfId="31" dataCellStyle="Currency">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D64A0FEA-6FAB-4665-BEBC-9EF49BDD02C0}" name="InflowTable" displayName="InflowTable" ref="B5:F9" totalsRowCount="1" headerRowDxfId="34" dataDxfId="33" dataCellStyle="Currency">
   <autoFilter ref="B5:F8" xr:uid="{BDF25EA2-0FE4-49BE-A200-95FD8AC899FD}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5866F9D1-ED5C-4617-8D36-26C5B3E72FF3}" name="Month" totalsRowLabel="Total Income" dataDxfId="30" totalsRowDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{632983CB-C8B8-42C3-A9EC-CDD74471A8B6}" name="May" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="22">
+    <tableColumn id="1" xr3:uid="{5866F9D1-ED5C-4617-8D36-26C5B3E72FF3}" name="Month" totalsRowLabel="Total Income" dataDxfId="32" totalsRowDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{632983CB-C8B8-42C3-A9EC-CDD74471A8B6}" name="May" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="24">
       <totalsRowFormula>SUM(InflowTable[May])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AA775CF0-E8F8-4A71-8053-CFB41E4D7F84}" name="Jun" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="21" dataCellStyle="Currency">
+    <tableColumn id="4" xr3:uid="{AA775CF0-E8F8-4A71-8053-CFB41E4D7F84}" name="Jun" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="23" dataCellStyle="Currency">
       <totalsRowFormula>SUM(InflowTable[Jun])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B160FC61-3A4B-469F-B5B1-56BCD564C413}" name="Jul" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="20" dataCellStyle="Currency">
+    <tableColumn id="5" xr3:uid="{B160FC61-3A4B-469F-B5B1-56BCD564C413}" name="Jul" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="22" dataCellStyle="Currency">
       <totalsRowFormula>SUM(InflowTable[Jul])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B99C8D5C-8384-465E-B6C7-4CA44093F8F3}" name="Aug" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="19" dataCellStyle="Currency">
+    <tableColumn id="6" xr3:uid="{B99C8D5C-8384-465E-B6C7-4CA44093F8F3}" name="Aug" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="21" dataCellStyle="Currency">
       <totalsRowFormula>SUM(InflowTable[Aug])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -2885,20 +2890,20 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F7F658C8-C48C-4A57-9B90-0B6F1819E4B4}" name="OutflowTable" displayName="OutflowTable" ref="B13:F22" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28" dataCellStyle="Currency">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F7F658C8-C48C-4A57-9B90-0B6F1819E4B4}" name="OutflowTable" displayName="OutflowTable" ref="B13:F22" totalsRowCount="1" headerRowDxfId="31" dataDxfId="30" dataCellStyle="Currency">
   <autoFilter ref="B13:F21" xr:uid="{397B62D4-2ACA-45F3-B17B-F47CB9BFB1B3}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{885A03A5-A076-4E6C-A5F8-25FD70BE8DA5}" name="Payments" totalsRowLabel="Total Payments" dataDxfId="18" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{2F4AEE80-EEEA-4331-8223-324655D22EE4}" name="May" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="3" dataCellStyle="Currency">
+    <tableColumn id="1" xr3:uid="{885A03A5-A076-4E6C-A5F8-25FD70BE8DA5}" name="Payments" totalsRowLabel="Total Payments" dataDxfId="20" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{2F4AEE80-EEEA-4331-8223-324655D22EE4}" name="May" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="5" dataCellStyle="Currency">
       <totalsRowFormula>SUM(OutflowTable[May])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2B6198DA-3652-41EC-9584-ADF0ABE7E89D}" name="Jun" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="2" dataCellStyle="Currency">
+    <tableColumn id="4" xr3:uid="{2B6198DA-3652-41EC-9584-ADF0ABE7E89D}" name="Jun" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="4" dataCellStyle="Currency">
       <totalsRowFormula>SUM(OutflowTable[Jun])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{16304CF8-E283-4AE6-ADBF-BA0602A3C01D}" name="Jul" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="1" dataCellStyle="Currency">
+    <tableColumn id="5" xr3:uid="{16304CF8-E283-4AE6-ADBF-BA0602A3C01D}" name="Jul" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="3" dataCellStyle="Currency">
       <totalsRowFormula>SUM(OutflowTable[Jul])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{26F092AC-B983-497B-A7E1-EBAA65A5CA28}" name="Aug" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="0" dataCellStyle="Currency">
+    <tableColumn id="6" xr3:uid="{26F092AC-B983-497B-A7E1-EBAA65A5CA28}" name="Aug" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="2" dataCellStyle="Currency">
       <totalsRowFormula>SUM(OutflowTable[Aug])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -2911,7 +2916,7 @@
   <autoFilter ref="B7:C9" xr:uid="{125894CD-21B1-4CC8-A3A6-6BC98122DE00}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{009A1A39-4D41-4D31-8CB0-61E86F2FAEE0}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{465367BD-4B99-410C-A5CC-2CC5747D430D}" name="Value" dataDxfId="61" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{465367BD-4B99-410C-A5CC-2CC5747D430D}" name="Value" dataDxfId="62" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2922,42 +2927,42 @@
   <autoFilter ref="B13:O17" xr:uid="{4380793E-740C-42AC-8FCA-EFB192121ED9}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{8EC15B50-6B1E-400A-81FC-D59EE9951D60}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{E8826DC7-7A04-4D63-B3E1-E1B5370C11D3}" name="Gross Sales" dataDxfId="54" dataCellStyle="Currency"/>
-    <tableColumn id="9" xr3:uid="{D930720B-E64D-4851-9C4C-3D428B090951}" name="-" dataDxfId="53" dataCellStyle="Currency">
+    <tableColumn id="2" xr3:uid="{E8826DC7-7A04-4D63-B3E1-E1B5370C11D3}" name="Gross Sales" dataDxfId="55" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{D930720B-E64D-4851-9C4C-3D428B090951}" name="-" dataDxfId="54" dataCellStyle="Currency">
       <calculatedColumnFormula>CONCATENATE(SalesProjectionTable[[#This Row],[Gross Sales]], " * ", SalesCashRate)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{60CAE65A-1D52-44EC-B962-1C320E5AE63B}" name="Cash Sales" dataDxfId="52" dataCellStyle="Currency">
+    <tableColumn id="3" xr3:uid="{60CAE65A-1D52-44EC-B962-1C320E5AE63B}" name="Cash Sales" dataDxfId="53" dataCellStyle="Currency">
       <calculatedColumnFormula>SalesProjectionTable[[#This Row],[Gross Sales]]*SalesCashRate</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{1018F9C3-E4F7-45BA-92B1-CD4524E17D42}" name="--" dataDxfId="51" dataCellStyle="Currency">
+    <tableColumn id="11" xr3:uid="{1018F9C3-E4F7-45BA-92B1-CD4524E17D42}" name="--" dataDxfId="52" dataCellStyle="Currency">
       <calculatedColumnFormula>CONCATENATE(SalesProjectionTable[[#This Row],[Cash Sales]], " * ", PresentValueFactor)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FC153182-A1CE-4C35-95B5-5CD042D90B3B}" name="Immediate Cash Sales" dataDxfId="50">
+    <tableColumn id="4" xr3:uid="{FC153182-A1CE-4C35-95B5-5CD042D90B3B}" name="Immediate Cash Sales" dataDxfId="51">
       <calculatedColumnFormula>SalesProjectionTable[[#This Row],[Cash Sales]]*PresentValueFactor</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{415AA063-C0BF-4DDF-AE0C-33CAED80429F}" name="---" dataDxfId="49">
+    <tableColumn id="12" xr3:uid="{415AA063-C0BF-4DDF-AE0C-33CAED80429F}" name="---" dataDxfId="50">
       <calculatedColumnFormula>CONCATENATE(SalesProjectionTable[[#This Row],[Gross Sales]], " * ", SalesCreditRate)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F1C46C9C-3F6C-4D7C-9220-4F723AF0527D}" name="Credit Sales (Payed in the next month)" dataDxfId="48">
+    <tableColumn id="5" xr3:uid="{F1C46C9C-3F6C-4D7C-9220-4F723AF0527D}" name="Credit Sales (Payed in the next month)" dataDxfId="0">
       <calculatedColumnFormula>SalesProjectionTable[[#This Row],[Gross Sales]]*SalesBalance</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F6E0C5BD-9CD0-49D7-A890-5EAF9567B3C1}" name="----" dataDxfId="47" dataCellStyle="Currency">
+    <tableColumn id="13" xr3:uid="{F6E0C5BD-9CD0-49D7-A890-5EAF9567B3C1}" name="----" dataDxfId="49" dataCellStyle="Currency">
       <calculatedColumnFormula>CONCATENATE(SalesProjectionTable[[#This Row],[Gross Sales]], " * ", DirectCostSalesRate)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CF193C21-ABB3-4731-97BA-33832428CF4E}" name="Purchases" dataDxfId="46">
+    <tableColumn id="6" xr3:uid="{CF193C21-ABB3-4731-97BA-33832428CF4E}" name="Gross Purchases" dataDxfId="48">
       <calculatedColumnFormula>SalesProjectionTable[[#This Row],[Gross Sales]]*DirectCostSalesRate</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{96BC0157-5BEA-470A-AA84-CC4ADF3B846D}" name="-----" dataDxfId="45">
-      <calculatedColumnFormula>CONCATENATE(SalesProjectionTable[[#This Row],[Purchases]], " * ", ImmedatePurchasesPayRate)</calculatedColumnFormula>
+    <tableColumn id="14" xr3:uid="{96BC0157-5BEA-470A-AA84-CC4ADF3B846D}" name="-----" dataDxfId="47">
+      <calculatedColumnFormula>CONCATENATE(SalesProjectionTable[[#This Row],[Gross Purchases]], " * ", ImmedatePurchasesPayRate)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5178BDBC-34F3-4560-AA55-5A6F95118314}" name="Cash Purchases (25%)" dataDxfId="44">
-      <calculatedColumnFormula>SalesProjectionTable[[#This Row],[Purchases]]*ImmedatePurchasesPayRate</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{5178BDBC-34F3-4560-AA55-5A6F95118314}" name="Cash Purchases (25%)" dataDxfId="46">
+      <calculatedColumnFormula>SalesProjectionTable[[#This Row],[Gross Purchases]]*ImmedatePurchasesPayRate</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{5180BBB3-401C-47A3-989F-5522A7EBA01D}" name="------" dataDxfId="43" dataCellStyle="Currency">
-      <calculatedColumnFormula>CONCATENATE(SalesProjectionTable[[#This Row],[Purchases]], " * ", ArrearsPurchasesPayRate)</calculatedColumnFormula>
+    <tableColumn id="15" xr3:uid="{5180BBB3-401C-47A3-989F-5522A7EBA01D}" name="------" dataDxfId="45" dataCellStyle="Currency">
+      <calculatedColumnFormula>CONCATENATE(SalesProjectionTable[[#This Row],[Gross Purchases]], " * ", ArrearsPurchasesPayRate)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{847E65FE-6BA6-4920-87E2-B8691602428A}" name="Credit Purchases (75%)" dataDxfId="42">
-      <calculatedColumnFormula>SalesProjectionTable[[#This Row],[Purchases]]*ArrearsPurchasesPayRate</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{847E65FE-6BA6-4920-87E2-B8691602428A}" name="Credit Purchases (75%)" dataDxfId="44">
+      <calculatedColumnFormula>SalesProjectionTable[[#This Row],[Gross Purchases]]*ArrearsPurchasesPayRate</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3702,7 +3707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39ADF2D-6BFE-4EF1-963B-26D1B015E910}">
   <dimension ref="B4:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -3720,7 +3725,7 @@
   <sheetData>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -3807,7 +3812,7 @@
     </row>
     <row r="9" spans="2:10" ht="15" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="10">
@@ -3837,7 +3842,7 @@
     </row>
     <row r="11" spans="2:10" ht="15" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="10"/>
@@ -3884,7 +3889,7 @@
     </row>
     <row r="14" spans="2:10" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="28">
@@ -3909,7 +3914,7 @@
     </row>
     <row r="15" spans="2:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" s="45"/>
       <c r="D15" s="23">
@@ -3917,17 +3922,17 @@
         <v>12000</v>
       </c>
       <c r="E15" s="45"/>
-      <c r="F15" s="50">
+      <c r="F15" s="49">
         <f>MayCreditPurchases</f>
         <v>22312.499999999996</v>
       </c>
       <c r="G15" s="45"/>
-      <c r="H15" s="50">
+      <c r="H15" s="49">
         <f>JuneCreditPurchases</f>
         <v>24937.5</v>
       </c>
       <c r="I15" s="45"/>
-      <c r="J15" s="50">
+      <c r="J15" s="49">
         <f>JulyCreditPurchases</f>
         <v>27562.5</v>
       </c>
@@ -3953,7 +3958,7 @@
     </row>
     <row r="17" spans="2:10" ht="15" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="9"/>
@@ -4115,7 +4120,7 @@
       <c r="B24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="49" t="str">
+      <c r="C24" s="48" t="str">
         <f>CONCATENATE(Table3[[#Totals],[May]], " - ",Table4[[#Totals],[May]])</f>
         <v>65490 - 70862.5</v>
       </c>
@@ -4123,7 +4128,7 @@
         <f>Table3[[#Totals],[May]]-Table4[[#Totals],[May]]</f>
         <v>-5372.5</v>
       </c>
-      <c r="E24" s="49" t="str">
+      <c r="E24" s="48" t="str">
         <f>CONCATENATE(Table3[[#Totals],[Jun]], " - ",Table4[[#Totals],[Jun]])</f>
         <v>117630 - 102875</v>
       </c>
@@ -4165,7 +4170,7 @@
       <c r="B26" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="49" t="str">
+      <c r="C26" s="48" t="str">
         <f>CONCATENATE(D24, " + ",D25)</f>
         <v>-5372.5 + -3500</v>
       </c>
@@ -4205,15 +4210,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743E18A1-2DAF-462F-9BC6-645D5DAADC49}">
-  <dimension ref="B4:G26"/>
+  <dimension ref="B4:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
     <col min="3" max="3" width="26.44140625" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
@@ -4226,7 +4232,7 @@
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -4307,7 +4313,7 @@
     </row>
     <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9" s="10">
         <f>SUM(InflowTable[May])</f>
@@ -4336,7 +4342,7 @@
     </row>
     <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="10"/>
@@ -4371,7 +4377,7 @@
     </row>
     <row r="14" spans="2:7" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14" s="9">
         <f>MayCashPurchases</f>
@@ -4392,7 +4398,7 @@
     </row>
     <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" s="9">
         <f>AprilPurchases</f>
@@ -4425,7 +4431,7 @@
     </row>
     <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9">
@@ -4603,6 +4609,11 @@
       <c r="F26" s="9">
         <f>F24+F25</f>
         <v>63212.5</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4619,10 +4630,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D36E3E-C906-4B90-9A16-8FB67A116FEB}">
-  <dimension ref="B2:AV47"/>
+  <dimension ref="B2:AV46"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4630,15 +4641,16 @@
     <col min="2" max="2" width="41.33203125" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
+    <col min="8" max="8" width="2.77734375" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
     <col min="11" max="11" width="16.44140625" customWidth="1"/>
     <col min="12" max="12" width="14.5546875" customWidth="1"/>
-    <col min="13" max="13" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.21875" customWidth="1"/>
+    <col min="13" max="13" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.109375" customWidth="1"/>
     <col min="17" max="17" width="27.44140625" customWidth="1"/>
     <col min="18" max="19" width="11.5546875" bestFit="1" customWidth="1"/>
@@ -4662,7 +4674,7 @@
     </row>
     <row r="5" spans="2:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="Q5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R5" t="s">
         <v>32</v>
@@ -4705,7 +4717,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="Q7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R7" s="4">
         <f>R6*SalesRateofCash</f>
@@ -4735,7 +4747,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="Q8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R8" s="4">
         <f>R7*PresentValueFactor</f>
@@ -4765,7 +4777,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="Q9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R9" s="4">
         <f>R6*SalesBalance</f>
@@ -4786,7 +4798,7 @@
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="Q10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R10" s="4">
         <f>R6*DirectCostSalesRate</f>
@@ -4807,7 +4819,7 @@
         <v>44</v>
       </c>
       <c r="Q11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R11" s="4">
         <f>R10*ImmedatePurchasesPayRate</f>
@@ -4828,7 +4840,7 @@
     </row>
     <row r="12" spans="2:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="Q12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R12" s="4">
         <f>R10*ArrearsPurchasesPayRate</f>
@@ -4850,43 +4862,43 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
         <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>41</v>
       </c>
       <c r="I13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
@@ -4929,19 +4941,19 @@
         <v>29749.999999999996</v>
       </c>
       <c r="L14" s="39" t="str">
-        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Purchases]], " * ", ImmedatePurchasesPayRate)</f>
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Gross Purchases]], " * ", ImmedatePurchasesPayRate)</f>
         <v>29750 * 0.25</v>
       </c>
       <c r="M14" s="42">
-        <f>SalesProjectionTable[[#This Row],[Purchases]]*ImmedatePurchasesPayRate</f>
+        <f>SalesProjectionTable[[#This Row],[Gross Purchases]]*ImmedatePurchasesPayRate</f>
         <v>7437.4999999999991</v>
       </c>
       <c r="N14" s="39" t="str">
-        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Purchases]], " * ", ArrearsPurchasesPayRate)</f>
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Gross Purchases]], " * ", ArrearsPurchasesPayRate)</f>
         <v>29750 * 0.75</v>
       </c>
-      <c r="O14" s="51">
-        <f>SalesProjectionTable[[#This Row],[Purchases]]*ArrearsPurchasesPayRate</f>
+      <c r="O14" s="50">
+        <f>SalesProjectionTable[[#This Row],[Gross Purchases]]*ArrearsPurchasesPayRate</f>
         <v>22312.499999999996</v>
       </c>
     </row>
@@ -4985,19 +4997,19 @@
         <v>33250</v>
       </c>
       <c r="L15" s="39" t="str">
-        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Purchases]], " * ", ImmedatePurchasesPayRate)</f>
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Gross Purchases]], " * ", ImmedatePurchasesPayRate)</f>
         <v>33250 * 0.25</v>
       </c>
       <c r="M15" s="42">
-        <f>SalesProjectionTable[[#This Row],[Purchases]]*ImmedatePurchasesPayRate</f>
+        <f>SalesProjectionTable[[#This Row],[Gross Purchases]]*ImmedatePurchasesPayRate</f>
         <v>8312.5</v>
       </c>
       <c r="N15" s="39" t="str">
-        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Purchases]], " * ", ArrearsPurchasesPayRate)</f>
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Gross Purchases]], " * ", ArrearsPurchasesPayRate)</f>
         <v>33250 * 0.75</v>
       </c>
-      <c r="O15" s="51">
-        <f>SalesProjectionTable[[#This Row],[Purchases]]*ArrearsPurchasesPayRate</f>
+      <c r="O15" s="50">
+        <f>SalesProjectionTable[[#This Row],[Gross Purchases]]*ArrearsPurchasesPayRate</f>
         <v>24937.5</v>
       </c>
     </row>
@@ -5041,19 +5053,19 @@
         <v>36750</v>
       </c>
       <c r="L16" s="39" t="str">
-        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Purchases]], " * ", ImmedatePurchasesPayRate)</f>
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Gross Purchases]], " * ", ImmedatePurchasesPayRate)</f>
         <v>36750 * 0.25</v>
       </c>
       <c r="M16" s="42">
-        <f>SalesProjectionTable[[#This Row],[Purchases]]*ImmedatePurchasesPayRate</f>
+        <f>SalesProjectionTable[[#This Row],[Gross Purchases]]*ImmedatePurchasesPayRate</f>
         <v>9187.5</v>
       </c>
       <c r="N16" s="39" t="str">
-        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Purchases]], " * ", ArrearsPurchasesPayRate)</f>
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Gross Purchases]], " * ", ArrearsPurchasesPayRate)</f>
         <v>36750 * 0.75</v>
       </c>
-      <c r="O16" s="51">
-        <f>SalesProjectionTable[[#This Row],[Purchases]]*ArrearsPurchasesPayRate</f>
+      <c r="O16" s="50">
+        <f>SalesProjectionTable[[#This Row],[Gross Purchases]]*ArrearsPurchasesPayRate</f>
         <v>27562.5</v>
       </c>
     </row>
@@ -5097,19 +5109,19 @@
         <v>40250</v>
       </c>
       <c r="L17" s="39" t="str">
-        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Purchases]], " * ", ImmedatePurchasesPayRate)</f>
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Gross Purchases]], " * ", ImmedatePurchasesPayRate)</f>
         <v>40250 * 0.25</v>
       </c>
       <c r="M17" s="42">
-        <f>SalesProjectionTable[[#This Row],[Purchases]]*ImmedatePurchasesPayRate</f>
+        <f>SalesProjectionTable[[#This Row],[Gross Purchases]]*ImmedatePurchasesPayRate</f>
         <v>10062.5</v>
       </c>
       <c r="N17" s="39" t="str">
-        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Purchases]], " * ", ArrearsPurchasesPayRate)</f>
+        <f>CONCATENATE(SalesProjectionTable[[#This Row],[Gross Purchases]], " * ", ArrearsPurchasesPayRate)</f>
         <v>40250 * 0.75</v>
       </c>
       <c r="O17" s="10">
-        <f>SalesProjectionTable[[#This Row],[Purchases]]*ArrearsPurchasesPayRate</f>
+        <f>SalesProjectionTable[[#This Row],[Gross Purchases]]*ArrearsPurchasesPayRate</f>
         <v>30187.5</v>
       </c>
       <c r="AV17" t="s">
@@ -5153,46 +5165,53 @@
       </c>
     </row>
     <row r="22" spans="2:48" x14ac:dyDescent="0.3">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="23" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C23" s="3">
         <v>0.6</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
       <c r="F23" s="3"/>
-      <c r="G23">
-        <v>2</v>
-      </c>
     </row>
     <row r="24" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="21">
+        <v>85</v>
+      </c>
+      <c r="C24" s="51">
         <f>1-SalesRateofCash</f>
         <v>0.4</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24">
+        <v>56</v>
+      </c>
+      <c r="E24">
         <v>2</v>
       </c>
-      <c r="I24" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24" t="s">
-        <v>69</v>
+      <c r="F24" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="2:48" x14ac:dyDescent="0.3">
@@ -5203,49 +5222,43 @@
         <v>0.01</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
       <c r="F25" s="3"/>
-      <c r="G25">
-        <v>3</v>
-      </c>
     </row>
     <row r="26" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="21">
+        <v>64</v>
+      </c>
+      <c r="C26" s="51">
         <f>1-C25</f>
         <v>0.99</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="21"/>
+        <v>51</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
       <c r="F26" s="21"/>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="I26" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="27" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C27" s="21">
         <v>0.35</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="21"/>
+        <v>51</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
       <c r="F27" s="21"/>
-      <c r="G27">
-        <v>4</v>
-      </c>
     </row>
     <row r="28" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
@@ -5255,310 +5268,273 @@
         <v>0.25</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="21"/>
+        <v>51</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
       <c r="F28" s="21"/>
-      <c r="G28">
-        <v>5</v>
-      </c>
     </row>
     <row r="29" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="51">
         <f>1-C28</f>
         <v>0.75</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="21"/>
+        <v>51</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
       <c r="F29" s="21"/>
-      <c r="G29">
-        <v>5</v>
-      </c>
-      <c r="I29" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="30" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C30" s="4">
         <v>12000</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30">
+      <c r="E30">
         <v>6</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C31" s="4">
         <v>500</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31">
+      <c r="E31">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="2:48" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C32" s="21">
         <v>0.15</v>
       </c>
       <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32">
+      <c r="E32">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="48">
+        <v>94</v>
+      </c>
+      <c r="C33" s="52">
         <f>DecemberSalonEquipmentPrice*(1-DecemberSalonEquipmentDiscountRate)</f>
         <v>425</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
+      <c r="D33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="4">
-        <f>C33*(1-C32)</f>
-        <v>361.25</v>
+        <v>32000</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34">
-        <v>6</v>
-      </c>
-      <c r="I34" t="s">
-        <v>49</v>
-      </c>
-      <c r="K34" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="L34" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="4">
-        <v>32000</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35">
-        <v>7</v>
+      <c r="C35" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="G36">
+        <v>70</v>
+      </c>
+      <c r="C36" s="53">
+        <f>C34*C35</f>
+        <v>27200</v>
+      </c>
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C37" s="10">
-        <f>C35*C36</f>
-        <v>27200</v>
+        <v>550</v>
       </c>
       <c r="D37" t="s">
-        <v>0</v>
-      </c>
-      <c r="G37">
+        <v>54</v>
+      </c>
+      <c r="E37">
         <v>8</v>
       </c>
-      <c r="I37" t="s">
-        <v>49</v>
-      </c>
+      <c r="F37" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="L37" s="22"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="10">
-        <v>550</v>
+        <v>57</v>
+      </c>
+      <c r="C38" s="4">
+        <v>25000</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38">
-        <v>8</v>
-      </c>
-      <c r="K38" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="L38" s="22"/>
+        <v>32</v>
+      </c>
+      <c r="E38">
+        <v>9</v>
+      </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="4">
-        <v>25000</v>
-      </c>
-      <c r="D39" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39">
+        <v>58</v>
+      </c>
+      <c r="C39" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="E39">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="G40">
+        <v>26</v>
+      </c>
+      <c r="C40" s="52">
+        <f>C38*(1+C39)</f>
+        <v>26250</v>
+      </c>
+      <c r="D40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40">
         <v>9</v>
       </c>
+      <c r="F40" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="L40" s="22"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C41" s="4">
-        <f>C39*(1+C40)</f>
-        <v>26250</v>
-      </c>
-      <c r="D41" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41">
-        <v>9</v>
-      </c>
-      <c r="I41" t="s">
-        <v>49</v>
-      </c>
-      <c r="K41" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="L41" s="22"/>
+        <v>48000</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="4">
-        <v>48000</v>
-      </c>
-      <c r="G42">
+        <v>61</v>
+      </c>
+      <c r="C42" s="53">
+        <f>C41/12</f>
+        <v>4000</v>
+      </c>
+      <c r="D42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C43" s="10">
-        <f>C42/12</f>
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
-      </c>
-      <c r="G43">
-        <v>10</v>
-      </c>
-      <c r="I43" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="E43">
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C44" s="10">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="D44" t="s">
-        <v>53</v>
-      </c>
-      <c r="G44">
-        <v>11</v>
+        <v>32</v>
+      </c>
+      <c r="E44">
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C45" s="10">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="D45" t="s">
         <v>32</v>
       </c>
-      <c r="G45">
-        <v>12</v>
+      <c r="E45">
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C46" s="10">
-        <v>12000</v>
+        <v>-3500</v>
       </c>
       <c r="D46" t="s">
         <v>32</v>
       </c>
-      <c r="G46">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="10">
-        <v>-3500</v>
-      </c>
-      <c r="D47" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47">
+      <c r="E46">
         <v>14</v>
       </c>
-      <c r="K47" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="L47" s="22"/>
+      <c r="F46" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="L46" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5567,10 +5543,11 @@
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>

--- a/exam-papers/2023-buss06073-business-decision-making-and-apps-solution-answer-1.xlsx
+++ b/exam-papers/2023-buss06073-business-decision-making-and-apps-solution-answer-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\learn-business\exam-papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF4004F-F60D-420C-8C0D-72DE524F6481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FEE1E5-2EB0-4D66-8C5A-9D1634970E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-2928" windowWidth="23256" windowHeight="12456" tabRatio="740" activeTab="4" xr2:uid="{48B5650A-B419-41F6-9683-C4A751FD5B03}"/>
   </bookViews>
@@ -4632,8 +4632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D36E3E-C906-4B90-9A16-8FB67A116FEB}">
   <dimension ref="B2:AV46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4641,7 +4641,7 @@
     <col min="2" max="2" width="41.33203125" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
     <col min="6" max="6" width="10.21875" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
     <col min="8" max="8" width="2.77734375" customWidth="1"/>
